--- a/Assets/simpleKanjiMaster.xlsx
+++ b/Assets/simpleKanjiMaster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Kanji_training\Assets\QuestionData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\KanjiTrain2\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2F08A9-3E04-4C63-A5F8-2EDBEFB71003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B3B4F8-66E9-44FC-9AF7-A92E5D04A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="135" windowWidth="17610" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="135" windowWidth="27180" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -4656,9 +4656,6 @@
     <t>安,委,好,要,桜,妻,婦,姿,治</t>
   </si>
   <si>
-    <t>寒,客,宮,実,守,宿,定,害,完,官,察,貯,寄,富,容,宇,穴,憲,宗,宣,宅,宙,宝,密,委,始,好,要,桜,妻,婦,姿</t>
-  </si>
-  <si>
     <t>安,寒,客,宮,実,守,宿,定,完,官,察,貯,寄,富,容,宇,穴,憲,宗,宣,宅,宙,宝,密,員,君,向,号,事,豆,倍,品,部,味,命,問,和,塩,加,各,官,喜,器,告,史,司,唱,倉,束,別,可,句,舌,革,吸,呼,后,聖,善,難,否</t>
   </si>
   <si>
@@ -6973,6 +6970,10 @@
     <rPh sb="4" eb="6">
       <t>レイブン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>寒,客,宮,実,守,宿,定,害,完,官,察,貯,寄,富,容,宇,穴,憲,宗,宣,宅,宙,宝,密,委,始,好,要,桜,妻,婦,姿</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7389,15 +7390,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G767"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A722" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F750" sqref="F750"/>
+    <sheetView tabSelected="1" topLeftCell="A734" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F761" sqref="F761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -7420,7 +7421,7 @@
         <v>772</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -7464,7 +7465,7 @@
         <v>767</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1539</v>
+        <v>2288</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
@@ -7485,10 +7486,10 @@
         <v>794</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
@@ -7509,10 +7510,10 @@
         <v>795</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
@@ -7533,10 +7534,10 @@
         <v>796</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
@@ -7557,10 +7558,10 @@
         <v>797</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
@@ -7581,10 +7582,10 @@
         <v>798</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
@@ -7605,10 +7606,10 @@
         <v>799</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
@@ -7629,10 +7630,10 @@
         <v>800</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
@@ -7653,10 +7654,10 @@
         <v>801</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
@@ -7677,10 +7678,10 @@
         <v>802</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
@@ -7701,10 +7702,10 @@
         <v>803</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
@@ -7725,10 +7726,10 @@
         <v>804</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
@@ -7749,10 +7750,10 @@
         <v>805</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
@@ -7773,10 +7774,10 @@
         <v>806</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
@@ -7797,10 +7798,10 @@
         <v>807</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
@@ -7821,10 +7822,10 @@
         <v>808</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
@@ -7845,10 +7846,10 @@
         <v>809</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
@@ -7869,10 +7870,10 @@
         <v>810</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
@@ -7893,10 +7894,10 @@
         <v>811</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
@@ -7917,10 +7918,10 @@
         <v>812</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
@@ -7941,10 +7942,10 @@
         <v>813</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="0"/>
@@ -7965,10 +7966,10 @@
         <v>814</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="0"/>
@@ -7989,10 +7990,10 @@
         <v>815</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
@@ -8013,10 +8014,10 @@
         <v>816</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
@@ -8037,10 +8038,10 @@
         <v>817</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
@@ -8061,10 +8062,10 @@
         <v>818</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="0"/>
@@ -8085,10 +8086,10 @@
         <v>819</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="0"/>
@@ -8109,10 +8110,10 @@
         <v>820</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="0"/>
@@ -8133,10 +8134,10 @@
         <v>821</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="0"/>
@@ -8157,10 +8158,10 @@
         <v>822</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="0"/>
@@ -8181,10 +8182,10 @@
         <v>823</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="0"/>
@@ -8205,10 +8206,10 @@
         <v>824</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="0"/>
@@ -8229,10 +8230,10 @@
         <v>825</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="0"/>
@@ -8253,10 +8254,10 @@
         <v>826</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="0"/>
@@ -8277,10 +8278,10 @@
         <v>827</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="0"/>
@@ -8301,10 +8302,10 @@
         <v>828</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="0"/>
@@ -8325,10 +8326,10 @@
         <v>829</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="0"/>
@@ -8349,10 +8350,10 @@
         <v>830</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="0"/>
@@ -8373,10 +8374,10 @@
         <v>831</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="0"/>
@@ -8397,10 +8398,10 @@
         <v>832</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="0"/>
@@ -8421,10 +8422,10 @@
         <v>833</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="0"/>
@@ -8445,10 +8446,10 @@
         <v>834</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="0"/>
@@ -8469,10 +8470,10 @@
         <v>835</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="0"/>
@@ -8493,10 +8494,10 @@
         <v>836</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="0"/>
@@ -8517,10 +8518,10 @@
         <v>837</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="0"/>
@@ -8541,10 +8542,10 @@
         <v>838</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="0"/>
@@ -8565,10 +8566,10 @@
         <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="0"/>
@@ -8589,10 +8590,10 @@
         <v>839</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="0"/>
@@ -8613,10 +8614,10 @@
         <v>840</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" si="0"/>
@@ -8637,10 +8638,10 @@
         <v>841</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" si="0"/>
@@ -8661,10 +8662,10 @@
         <v>842</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="G53" s="4">
         <f t="shared" si="0"/>
@@ -8685,10 +8686,10 @@
         <v>843</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G54" s="4">
         <f t="shared" si="0"/>
@@ -8709,10 +8710,10 @@
         <v>844</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" si="0"/>
@@ -8733,10 +8734,10 @@
         <v>845</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" si="0"/>
@@ -8757,10 +8758,10 @@
         <v>846</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" si="0"/>
@@ -8781,10 +8782,10 @@
         <v>847</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" si="0"/>
@@ -8805,10 +8806,10 @@
         <v>848</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" si="0"/>
@@ -8829,10 +8830,10 @@
         <v>849</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" si="0"/>
@@ -8851,7 +8852,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>1531</v>
@@ -8875,10 +8876,10 @@
         <v>850</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="G62" s="4">
         <f t="shared" si="0"/>
@@ -8899,10 +8900,10 @@
         <v>851</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="G63" s="4">
         <f t="shared" si="0"/>
@@ -8923,10 +8924,10 @@
         <v>852</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G64" s="4">
         <f t="shared" si="0"/>
@@ -8947,7 +8948,7 @@
         <v>853</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>1538</v>
@@ -8971,10 +8972,10 @@
         <v>854</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G66" s="4">
         <f t="shared" ref="G66:G129" si="1">LEN(F66)</f>
@@ -8995,10 +8996,10 @@
         <v>855</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="G67" s="4">
         <f t="shared" si="1"/>
@@ -9019,10 +9020,10 @@
         <v>856</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G68" s="4">
         <f t="shared" si="1"/>
@@ -9043,10 +9044,10 @@
         <v>857</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G69" s="4">
         <f t="shared" si="1"/>
@@ -9067,10 +9068,10 @@
         <v>858</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="G70" s="4">
         <f t="shared" si="1"/>
@@ -9091,10 +9092,10 @@
         <v>859</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G71" s="4">
         <f t="shared" si="1"/>
@@ -9115,10 +9116,10 @@
         <v>860</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="G72" s="4">
         <f t="shared" si="1"/>
@@ -9139,10 +9140,10 @@
         <v>861</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G73" s="4">
         <f t="shared" si="1"/>
@@ -9163,10 +9164,10 @@
         <v>862</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G74" s="4">
         <f t="shared" si="1"/>
@@ -9187,10 +9188,10 @@
         <v>863</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G75" s="4">
         <f t="shared" si="1"/>
@@ -9211,10 +9212,10 @@
         <v>864</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="G76" s="4">
         <f t="shared" si="1"/>
@@ -9235,10 +9236,10 @@
         <v>865</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G77" s="4">
         <f t="shared" si="1"/>
@@ -9259,10 +9260,10 @@
         <v>866</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G78" s="4">
         <f t="shared" si="1"/>
@@ -9283,10 +9284,10 @@
         <v>867</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G79" s="4">
         <f t="shared" si="1"/>
@@ -9307,10 +9308,10 @@
         <v>868</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G80" s="4">
         <f t="shared" si="1"/>
@@ -9331,10 +9332,10 @@
         <v>869</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G81" s="4">
         <f t="shared" si="1"/>
@@ -9355,10 +9356,10 @@
         <v>870</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G82" s="4">
         <f t="shared" si="1"/>
@@ -9379,10 +9380,10 @@
         <v>871</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="G83" s="4">
         <f t="shared" si="1"/>
@@ -9403,10 +9404,10 @@
         <v>872</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G84" s="4">
         <f t="shared" si="1"/>
@@ -9427,10 +9428,10 @@
         <v>873</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G85" s="4">
         <f t="shared" si="1"/>
@@ -9451,10 +9452,10 @@
         <v>874</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G86" s="4">
         <f t="shared" si="1"/>
@@ -9475,10 +9476,10 @@
         <v>875</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="G87" s="4">
         <f t="shared" si="1"/>
@@ -9499,10 +9500,10 @@
         <v>876</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G88" s="4">
         <f t="shared" si="1"/>
@@ -9523,10 +9524,10 @@
         <v>877</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G89" s="4">
         <f t="shared" si="1"/>
@@ -9547,10 +9548,10 @@
         <v>878</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G90" s="4">
         <f t="shared" si="1"/>
@@ -9571,10 +9572,10 @@
         <v>879</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G91" s="4">
         <f t="shared" si="1"/>
@@ -9595,10 +9596,10 @@
         <v>880</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G92" s="4">
         <f t="shared" si="1"/>
@@ -9619,10 +9620,10 @@
         <v>881</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="G93" s="4">
         <f t="shared" si="1"/>
@@ -9643,10 +9644,10 @@
         <v>882</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="G94" s="4">
         <f t="shared" si="1"/>
@@ -9667,10 +9668,10 @@
         <v>883</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="G95" s="4">
         <f t="shared" si="1"/>
@@ -9691,10 +9692,10 @@
         <v>884</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="G96" s="4">
         <f t="shared" si="1"/>
@@ -9715,10 +9716,10 @@
         <v>885</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="G97" s="4">
         <f t="shared" si="1"/>
@@ -9739,10 +9740,10 @@
         <v>886</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="G98" s="4">
         <f t="shared" si="1"/>
@@ -9763,10 +9764,10 @@
         <v>887</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G99" s="4">
         <f t="shared" si="1"/>
@@ -9785,7 +9786,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>1532</v>
@@ -9809,10 +9810,10 @@
         <v>888</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="G101" s="4">
         <f t="shared" si="1"/>
@@ -9833,10 +9834,10 @@
         <v>889</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="G102" s="4">
         <f t="shared" si="1"/>
@@ -9857,10 +9858,10 @@
         <v>774</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="G103" s="4">
         <f t="shared" si="1"/>
@@ -9881,10 +9882,10 @@
         <v>890</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G104" s="4">
         <f t="shared" si="1"/>
@@ -9905,10 +9906,10 @@
         <v>775</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="G105" s="4">
         <f t="shared" si="1"/>
@@ -9929,10 +9930,10 @@
         <v>891</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G106" s="4">
         <f t="shared" si="1"/>
@@ -9953,10 +9954,10 @@
         <v>892</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G107" s="4">
         <f t="shared" si="1"/>
@@ -9977,10 +9978,10 @@
         <v>893</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G108" s="4">
         <f t="shared" si="1"/>
@@ -10001,10 +10002,10 @@
         <v>894</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G109" s="4">
         <f t="shared" si="1"/>
@@ -10025,10 +10026,10 @@
         <v>895</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G110" s="4">
         <f t="shared" si="1"/>
@@ -10049,10 +10050,10 @@
         <v>896</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G111" s="4">
         <f t="shared" si="1"/>
@@ -10073,10 +10074,10 @@
         <v>897</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="G112" s="4">
         <f t="shared" si="1"/>
@@ -10097,10 +10098,10 @@
         <v>898</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G113" s="4">
         <f t="shared" si="1"/>
@@ -10121,10 +10122,10 @@
         <v>899</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G114" s="4">
         <f t="shared" si="1"/>
@@ -10145,10 +10146,10 @@
         <v>900</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G115" s="4">
         <f t="shared" si="1"/>
@@ -10169,10 +10170,10 @@
         <v>901</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G116" s="4">
         <f t="shared" si="1"/>
@@ -10193,10 +10194,10 @@
         <v>902</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G117" s="4">
         <f t="shared" si="1"/>
@@ -10217,10 +10218,10 @@
         <v>903</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G118" s="4">
         <f t="shared" si="1"/>
@@ -10241,10 +10242,10 @@
         <v>904</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G119" s="4">
         <f t="shared" si="1"/>
@@ -10265,10 +10266,10 @@
         <v>905</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G120" s="4">
         <f t="shared" si="1"/>
@@ -10289,10 +10290,10 @@
         <v>906</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G121" s="4">
         <f t="shared" si="1"/>
@@ -10313,10 +10314,10 @@
         <v>907</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="G122" s="4">
         <f t="shared" si="1"/>
@@ -10337,10 +10338,10 @@
         <v>908</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G123" s="4">
         <f t="shared" si="1"/>
@@ -10361,10 +10362,10 @@
         <v>909</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="G124" s="4">
         <f t="shared" si="1"/>
@@ -10385,10 +10386,10 @@
         <v>910</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G125" s="4">
         <f t="shared" si="1"/>
@@ -10409,10 +10410,10 @@
         <v>911</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G126" s="4">
         <f t="shared" si="1"/>
@@ -10433,10 +10434,10 @@
         <v>912</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G127" s="4">
         <f t="shared" si="1"/>
@@ -10457,10 +10458,10 @@
         <v>913</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G128" s="4">
         <f t="shared" si="1"/>
@@ -10481,10 +10482,10 @@
         <v>914</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="G129" s="4">
         <f t="shared" si="1"/>
@@ -10505,10 +10506,10 @@
         <v>915</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="G130" s="4">
         <f t="shared" ref="G130:G193" si="2">LEN(F130)</f>
@@ -10529,10 +10530,10 @@
         <v>916</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G131" s="4">
         <f t="shared" si="2"/>
@@ -10553,10 +10554,10 @@
         <v>917</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G132" s="4">
         <f t="shared" si="2"/>
@@ -10577,10 +10578,10 @@
         <v>918</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="G133" s="4">
         <f t="shared" si="2"/>
@@ -10601,10 +10602,10 @@
         <v>919</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G134" s="4">
         <f t="shared" si="2"/>
@@ -10625,10 +10626,10 @@
         <v>920</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="G135" s="4">
         <f t="shared" si="2"/>
@@ -10649,10 +10650,10 @@
         <v>921</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G136" s="4">
         <f t="shared" si="2"/>
@@ -10673,10 +10674,10 @@
         <v>922</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="G137" s="4">
         <f t="shared" si="2"/>
@@ -10697,10 +10698,10 @@
         <v>923</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="G138" s="4">
         <f t="shared" si="2"/>
@@ -10721,10 +10722,10 @@
         <v>924</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="G139" s="4">
         <f t="shared" si="2"/>
@@ -10745,10 +10746,10 @@
         <v>776</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="G140" s="4">
         <f t="shared" si="2"/>
@@ -10769,10 +10770,10 @@
         <v>925</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="G141" s="4">
         <f t="shared" si="2"/>
@@ -10793,10 +10794,10 @@
         <v>926</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="G142" s="4">
         <f t="shared" si="2"/>
@@ -10817,10 +10818,10 @@
         <v>927</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="G143" s="4">
         <f t="shared" si="2"/>
@@ -10841,10 +10842,10 @@
         <v>928</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="G144" s="4">
         <f t="shared" si="2"/>
@@ -10865,10 +10866,10 @@
         <v>929</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="G145" s="4">
         <f t="shared" si="2"/>
@@ -10889,10 +10890,10 @@
         <v>930</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="G146" s="4">
         <f t="shared" si="2"/>
@@ -10913,10 +10914,10 @@
         <v>931</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="G147" s="4">
         <f t="shared" si="2"/>
@@ -10937,10 +10938,10 @@
         <v>932</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G148" s="4">
         <f t="shared" si="2"/>
@@ -10961,10 +10962,10 @@
         <v>933</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="G149" s="4">
         <f t="shared" si="2"/>
@@ -10985,10 +10986,10 @@
         <v>934</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="G150" s="4">
         <f t="shared" si="2"/>
@@ -11009,10 +11010,10 @@
         <v>935</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="G151" s="4">
         <f t="shared" si="2"/>
@@ -11033,10 +11034,10 @@
         <v>936</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="G152" s="4">
         <f t="shared" si="2"/>
@@ -11057,10 +11058,10 @@
         <v>937</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="G153" s="4">
         <f t="shared" si="2"/>
@@ -11081,10 +11082,10 @@
         <v>938</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="G154" s="4">
         <f t="shared" si="2"/>
@@ -11105,10 +11106,10 @@
         <v>939</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G155" s="4">
         <f t="shared" si="2"/>
@@ -11129,10 +11130,10 @@
         <v>940</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G156" s="4">
         <f t="shared" si="2"/>
@@ -11151,10 +11152,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="G157" s="4">
         <f t="shared" si="2"/>
@@ -11175,10 +11176,10 @@
         <v>941</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="G158" s="4">
         <f t="shared" si="2"/>
@@ -11199,10 +11200,10 @@
         <v>942</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="G159" s="4">
         <f t="shared" si="2"/>
@@ -11223,10 +11224,10 @@
         <v>943</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="G160" s="4">
         <f t="shared" si="2"/>
@@ -11247,10 +11248,10 @@
         <v>944</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G161" s="4">
         <f t="shared" si="2"/>
@@ -11271,10 +11272,10 @@
         <v>945</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G162" s="4">
         <f t="shared" si="2"/>
@@ -11295,10 +11296,10 @@
         <v>946</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G163" s="4">
         <f t="shared" si="2"/>
@@ -11319,10 +11320,10 @@
         <v>947</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G164" s="4">
         <f t="shared" si="2"/>
@@ -11343,7 +11344,7 @@
         <v>948</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>713</v>
@@ -11367,10 +11368,10 @@
         <v>949</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="G166" s="4">
         <f t="shared" si="2"/>
@@ -11391,10 +11392,10 @@
         <v>950</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G167" s="4">
         <f t="shared" si="2"/>
@@ -11415,10 +11416,10 @@
         <v>951</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G168" s="4">
         <f t="shared" si="2"/>
@@ -11439,10 +11440,10 @@
         <v>952</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="G169" s="4">
         <f t="shared" si="2"/>
@@ -11463,10 +11464,10 @@
         <v>953</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G170" s="4">
         <f t="shared" si="2"/>
@@ -11487,10 +11488,10 @@
         <v>954</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G171" s="4">
         <f t="shared" si="2"/>
@@ -11511,10 +11512,10 @@
         <v>955</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G172" s="4">
         <f t="shared" si="2"/>
@@ -11535,10 +11536,10 @@
         <v>956</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G173" s="4">
         <f t="shared" si="2"/>
@@ -11559,10 +11560,10 @@
         <v>957</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G174" s="4">
         <f t="shared" si="2"/>
@@ -11583,10 +11584,10 @@
         <v>958</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="G175" s="4">
         <f t="shared" si="2"/>
@@ -11607,10 +11608,10 @@
         <v>959</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="G176" s="4">
         <f t="shared" si="2"/>
@@ -11631,10 +11632,10 @@
         <v>960</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="G177" s="4">
         <f t="shared" si="2"/>
@@ -11653,7 +11654,7 @@
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>1523</v>
@@ -11677,10 +11678,10 @@
         <v>961</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G179" s="4">
         <f t="shared" si="2"/>
@@ -11701,10 +11702,10 @@
         <v>962</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="G180" s="4">
         <f t="shared" si="2"/>
@@ -11725,10 +11726,10 @@
         <v>963</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="G181" s="4">
         <f t="shared" si="2"/>
@@ -11749,10 +11750,10 @@
         <v>964</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G182" s="4">
         <f t="shared" si="2"/>
@@ -11773,10 +11774,10 @@
         <v>965</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G183" s="4">
         <f t="shared" si="2"/>
@@ -11797,10 +11798,10 @@
         <v>777</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G184" s="4">
         <f t="shared" si="2"/>
@@ -11821,10 +11822,10 @@
         <v>966</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G185" s="4">
         <f t="shared" si="2"/>
@@ -11845,10 +11846,10 @@
         <v>967</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="G186" s="4">
         <f t="shared" si="2"/>
@@ -11867,7 +11868,7 @@
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>1520</v>
@@ -11891,10 +11892,10 @@
         <v>968</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G188" s="4">
         <f t="shared" si="2"/>
@@ -11915,10 +11916,10 @@
         <v>969</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="G189" s="4">
         <f t="shared" si="2"/>
@@ -11939,10 +11940,10 @@
         <v>970</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G190" s="4">
         <f t="shared" si="2"/>
@@ -11963,10 +11964,10 @@
         <v>971</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G191" s="4">
         <f t="shared" si="2"/>
@@ -11987,10 +11988,10 @@
         <v>972</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="G192" s="4">
         <f t="shared" si="2"/>
@@ -12011,10 +12012,10 @@
         <v>973</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G193" s="4">
         <f t="shared" si="2"/>
@@ -12035,10 +12036,10 @@
         <v>974</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="G194" s="4">
         <f t="shared" ref="G194:G257" si="3">LEN(F194)</f>
@@ -12059,10 +12060,10 @@
         <v>975</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="G195" s="4">
         <f t="shared" si="3"/>
@@ -12083,10 +12084,10 @@
         <v>976</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G196" s="4">
         <f t="shared" si="3"/>
@@ -12107,10 +12108,10 @@
         <v>977</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G197" s="4">
         <f t="shared" si="3"/>
@@ -12131,10 +12132,10 @@
         <v>978</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G198" s="4">
         <f t="shared" si="3"/>
@@ -12155,10 +12156,10 @@
         <v>979</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="G199" s="4">
         <f t="shared" si="3"/>
@@ -12179,10 +12180,10 @@
         <v>980</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G200" s="4">
         <f t="shared" si="3"/>
@@ -12203,10 +12204,10 @@
         <v>981</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G201" s="4">
         <f t="shared" si="3"/>
@@ -12227,10 +12228,10 @@
         <v>982</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="G202" s="4">
         <f t="shared" si="3"/>
@@ -12251,10 +12252,10 @@
         <v>983</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G203" s="4">
         <f t="shared" si="3"/>
@@ -12275,10 +12276,10 @@
         <v>984</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G204" s="4">
         <f t="shared" si="3"/>
@@ -12299,10 +12300,10 @@
         <v>778</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G205" s="4">
         <f t="shared" si="3"/>
@@ -12323,10 +12324,10 @@
         <v>985</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G206" s="4">
         <f t="shared" si="3"/>
@@ -12347,10 +12348,10 @@
         <v>986</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G207" s="4">
         <f t="shared" si="3"/>
@@ -12371,10 +12372,10 @@
         <v>987</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G208" s="4">
         <f t="shared" si="3"/>
@@ -12395,10 +12396,10 @@
         <v>988</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G209" s="4">
         <f t="shared" si="3"/>
@@ -12419,10 +12420,10 @@
         <v>989</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="G210" s="4">
         <f t="shared" si="3"/>
@@ -12443,10 +12444,10 @@
         <v>990</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="G211" s="4">
         <f t="shared" si="3"/>
@@ -12467,10 +12468,10 @@
         <v>991</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="G212" s="4">
         <f t="shared" si="3"/>
@@ -12491,10 +12492,10 @@
         <v>992</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G213" s="4">
         <f t="shared" si="3"/>
@@ -12515,10 +12516,10 @@
         <v>993</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="G214" s="4">
         <f t="shared" si="3"/>
@@ -12539,10 +12540,10 @@
         <v>994</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="G215" s="4">
         <f t="shared" si="3"/>
@@ -12563,10 +12564,10 @@
         <v>995</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="G216" s="4">
         <f t="shared" si="3"/>
@@ -12587,10 +12588,10 @@
         <v>996</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="G217" s="4">
         <f t="shared" si="3"/>
@@ -12611,10 +12612,10 @@
         <v>997</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="G218" s="4">
         <f t="shared" si="3"/>
@@ -12635,10 +12636,10 @@
         <v>998</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="G219" s="4">
         <f t="shared" si="3"/>
@@ -12659,10 +12660,10 @@
         <v>999</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G220" s="4">
         <f t="shared" si="3"/>
@@ -12683,10 +12684,10 @@
         <v>1000</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="G221" s="4">
         <f t="shared" si="3"/>
@@ -12707,10 +12708,10 @@
         <v>1001</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="G222" s="4">
         <f t="shared" si="3"/>
@@ -12731,7 +12732,7 @@
         <v>1002</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>1533</v>
@@ -12755,10 +12756,10 @@
         <v>1003</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="G224" s="4">
         <f t="shared" si="3"/>
@@ -12779,10 +12780,10 @@
         <v>1004</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G225" s="4">
         <f t="shared" si="3"/>
@@ -12803,10 +12804,10 @@
         <v>1000</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="G226" s="4">
         <f t="shared" si="3"/>
@@ -12827,10 +12828,10 @@
         <v>1005</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G227" s="4">
         <f t="shared" si="3"/>
@@ -12851,10 +12852,10 @@
         <v>1006</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="G228" s="4">
         <f t="shared" si="3"/>
@@ -12875,10 +12876,10 @@
         <v>1007</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G229" s="4">
         <f t="shared" si="3"/>
@@ -12899,10 +12900,10 @@
         <v>1008</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="G230" s="4">
         <f t="shared" si="3"/>
@@ -12923,10 +12924,10 @@
         <v>1009</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="G231" s="4">
         <f t="shared" si="3"/>
@@ -12947,10 +12948,10 @@
         <v>1010</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G232" s="4">
         <f t="shared" si="3"/>
@@ -12971,10 +12972,10 @@
         <v>1011</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G233" s="4">
         <f t="shared" si="3"/>
@@ -12995,10 +12996,10 @@
         <v>1012</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="G234" s="4">
         <f t="shared" si="3"/>
@@ -13019,10 +13020,10 @@
         <v>1013</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="G235" s="4">
         <f t="shared" si="3"/>
@@ -13043,10 +13044,10 @@
         <v>1014</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="G236" s="4">
         <f t="shared" si="3"/>
@@ -13067,10 +13068,10 @@
         <v>1015</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G237" s="4">
         <f t="shared" si="3"/>
@@ -13091,10 +13092,10 @@
         <v>1016</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G238" s="4">
         <f t="shared" si="3"/>
@@ -13115,10 +13116,10 @@
         <v>1017</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="G239" s="4">
         <f t="shared" si="3"/>
@@ -13139,10 +13140,10 @@
         <v>1018</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="G240" s="4">
         <f t="shared" si="3"/>
@@ -13163,10 +13164,10 @@
         <v>1019</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="G241" s="4">
         <f t="shared" si="3"/>
@@ -13187,10 +13188,10 @@
         <v>1020</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="G242" s="4">
         <f t="shared" si="3"/>
@@ -13211,10 +13212,10 @@
         <v>1021</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G243" s="4">
         <f t="shared" si="3"/>
@@ -13235,10 +13236,10 @@
         <v>1022</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G244" s="4">
         <f t="shared" si="3"/>
@@ -13259,10 +13260,10 @@
         <v>779</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G245" s="4">
         <f t="shared" si="3"/>
@@ -13283,10 +13284,10 @@
         <v>1023</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="G246" s="4">
         <f t="shared" si="3"/>
@@ -13307,10 +13308,10 @@
         <v>1024</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="G247" s="4">
         <f t="shared" si="3"/>
@@ -13331,10 +13332,10 @@
         <v>1025</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="G248" s="4">
         <f t="shared" si="3"/>
@@ -13355,10 +13356,10 @@
         <v>1026</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="G249" s="4">
         <f t="shared" si="3"/>
@@ -13379,10 +13380,10 @@
         <v>1027</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="G250" s="4">
         <f t="shared" si="3"/>
@@ -13403,10 +13404,10 @@
         <v>1028</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="G251" s="4">
         <f t="shared" si="3"/>
@@ -13427,10 +13428,10 @@
         <v>1029</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="G252" s="4">
         <f t="shared" si="3"/>
@@ -13451,10 +13452,10 @@
         <v>1030</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="G253" s="4">
         <f t="shared" si="3"/>
@@ -13475,10 +13476,10 @@
         <v>1031</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="G254" s="4">
         <f t="shared" si="3"/>
@@ -13499,10 +13500,10 @@
         <v>1032</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G255" s="4">
         <f t="shared" si="3"/>
@@ -13523,10 +13524,10 @@
         <v>1033</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="G256" s="4">
         <f t="shared" si="3"/>
@@ -13545,7 +13546,7 @@
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>1527</v>
@@ -13569,10 +13570,10 @@
         <v>1034</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="G258" s="4">
         <f t="shared" ref="G258:G321" si="4">LEN(F258)</f>
@@ -13593,10 +13594,10 @@
         <v>1035</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="G259" s="4">
         <f t="shared" si="4"/>
@@ -13617,10 +13618,10 @@
         <v>1036</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G260" s="4">
         <f t="shared" si="4"/>
@@ -13641,10 +13642,10 @@
         <v>1037</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="G261" s="4">
         <f t="shared" si="4"/>
@@ -13665,10 +13666,10 @@
         <v>1038</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G262" s="4">
         <f t="shared" si="4"/>
@@ -13689,10 +13690,10 @@
         <v>1039</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="G263" s="4">
         <f t="shared" si="4"/>
@@ -13713,7 +13714,7 @@
         <v>1040</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>1537</v>
@@ -13737,10 +13738,10 @@
         <v>1041</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G265" s="4">
         <f t="shared" si="4"/>
@@ -13761,7 +13762,7 @@
         <v>1042</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="4">
@@ -13783,10 +13784,10 @@
         <v>1043</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="G267" s="4">
         <f t="shared" si="4"/>
@@ -13807,10 +13808,10 @@
         <v>1044</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G268" s="4">
         <f t="shared" si="4"/>
@@ -13831,10 +13832,10 @@
         <v>1045</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="G269" s="4">
         <f t="shared" si="4"/>
@@ -13855,10 +13856,10 @@
         <v>1046</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G270" s="4">
         <f t="shared" si="4"/>
@@ -13879,10 +13880,10 @@
         <v>1047</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G271" s="4">
         <f t="shared" si="4"/>
@@ -13903,10 +13904,10 @@
         <v>1048</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="G272" s="4">
         <f t="shared" si="4"/>
@@ -13927,10 +13928,10 @@
         <v>1049</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G273" s="4">
         <f t="shared" si="4"/>
@@ -13951,10 +13952,10 @@
         <v>1050</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G274" s="4">
         <f t="shared" si="4"/>
@@ -13975,10 +13976,10 @@
         <v>1051</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G275" s="4">
         <f t="shared" si="4"/>
@@ -13999,10 +14000,10 @@
         <v>1052</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="G276" s="4">
         <f t="shared" si="4"/>
@@ -14023,10 +14024,10 @@
         <v>1053</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="G277" s="4">
         <f t="shared" si="4"/>
@@ -14047,10 +14048,10 @@
         <v>1054</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G278" s="4">
         <f t="shared" si="4"/>
@@ -14071,10 +14072,10 @@
         <v>1055</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="G279" s="4">
         <f t="shared" si="4"/>
@@ -14095,10 +14096,10 @@
         <v>1056</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="G280" s="4">
         <f t="shared" si="4"/>
@@ -14119,10 +14120,10 @@
         <v>1057</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G281" s="4">
         <f t="shared" si="4"/>
@@ -14141,7 +14142,7 @@
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>1525</v>
@@ -14163,7 +14164,7 @@
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>1529</v>
@@ -14187,10 +14188,10 @@
         <v>1058</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="G284" s="4">
         <f t="shared" si="4"/>
@@ -14211,10 +14212,10 @@
         <v>1059</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="G285" s="4">
         <f t="shared" si="4"/>
@@ -14235,10 +14236,10 @@
         <v>1060</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="G286" s="4">
         <f t="shared" si="4"/>
@@ -14259,10 +14260,10 @@
         <v>1061</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="G287" s="4">
         <f t="shared" si="4"/>
@@ -14283,10 +14284,10 @@
         <v>1062</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="G288" s="4">
         <f t="shared" si="4"/>
@@ -14307,7 +14308,7 @@
         <v>1063</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>758</v>
@@ -14331,10 +14332,10 @@
         <v>1064</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G290" s="4">
         <f t="shared" si="4"/>
@@ -14355,10 +14356,10 @@
         <v>1065</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G291" s="4">
         <f t="shared" si="4"/>
@@ -14379,10 +14380,10 @@
         <v>1066</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="G292" s="4">
         <f t="shared" si="4"/>
@@ -14403,10 +14404,10 @@
         <v>1067</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="G293" s="4">
         <f t="shared" si="4"/>
@@ -14427,10 +14428,10 @@
         <v>1068</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G294" s="4">
         <f t="shared" si="4"/>
@@ -14451,10 +14452,10 @@
         <v>1069</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G295" s="4">
         <f t="shared" si="4"/>
@@ -14475,10 +14476,10 @@
         <v>1070</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="G296" s="4">
         <f t="shared" si="4"/>
@@ -14499,10 +14500,10 @@
         <v>1071</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G297" s="4">
         <f t="shared" si="4"/>
@@ -14523,10 +14524,10 @@
         <v>1072</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="G298" s="4">
         <f t="shared" si="4"/>
@@ -14547,10 +14548,10 @@
         <v>1073</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="G299" s="4">
         <f t="shared" si="4"/>
@@ -14571,10 +14572,10 @@
         <v>1074</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="G300" s="4">
         <f t="shared" si="4"/>
@@ -14595,10 +14596,10 @@
         <v>1075</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="G301" s="4">
         <f t="shared" si="4"/>
@@ -14619,10 +14620,10 @@
         <v>1076</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G302" s="4">
         <f t="shared" si="4"/>
@@ -14643,10 +14644,10 @@
         <v>1077</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="G303" s="4">
         <f t="shared" si="4"/>
@@ -14665,7 +14666,7 @@
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>1522</v>
@@ -14689,10 +14690,10 @@
         <v>1078</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="G305" s="4">
         <f t="shared" si="4"/>
@@ -14713,10 +14714,10 @@
         <v>1079</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="G306" s="4">
         <f t="shared" si="4"/>
@@ -14737,10 +14738,10 @@
         <v>1080</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="G307" s="4">
         <f t="shared" si="4"/>
@@ -14761,10 +14762,10 @@
         <v>1081</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G308" s="4">
         <f t="shared" si="4"/>
@@ -14785,10 +14786,10 @@
         <v>1082</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="G309" s="4">
         <f t="shared" si="4"/>
@@ -14809,10 +14810,10 @@
         <v>1083</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G310" s="4">
         <f t="shared" si="4"/>
@@ -14833,10 +14834,10 @@
         <v>1084</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="G311" s="4">
         <f t="shared" si="4"/>
@@ -14857,10 +14858,10 @@
         <v>1085</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="G312" s="4">
         <f t="shared" si="4"/>
@@ -14881,10 +14882,10 @@
         <v>1086</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="G313" s="4">
         <f t="shared" si="4"/>
@@ -14905,10 +14906,10 @@
         <v>1087</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="G314" s="4">
         <f t="shared" si="4"/>
@@ -14929,10 +14930,10 @@
         <v>1088</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="G315" s="4">
         <f t="shared" si="4"/>
@@ -14953,10 +14954,10 @@
         <v>1089</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G316" s="4">
         <f t="shared" si="4"/>
@@ -14977,10 +14978,10 @@
         <v>1090</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="G317" s="4">
         <f t="shared" si="4"/>
@@ -15001,10 +15002,10 @@
         <v>1091</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="G318" s="4">
         <f t="shared" si="4"/>
@@ -15025,10 +15026,10 @@
         <v>1092</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="G319" s="4">
         <f t="shared" si="4"/>
@@ -15049,10 +15050,10 @@
         <v>1093</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="G320" s="4">
         <f t="shared" si="4"/>
@@ -15073,10 +15074,10 @@
         <v>1094</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="G321" s="4">
         <f t="shared" si="4"/>
@@ -15097,10 +15098,10 @@
         <v>1095</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="G322" s="4">
         <f t="shared" ref="G322:G385" si="5">LEN(F322)</f>
@@ -15121,10 +15122,10 @@
         <v>1096</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="G323" s="4">
         <f t="shared" si="5"/>
@@ -15145,10 +15146,10 @@
         <v>1097</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="G324" s="4">
         <f t="shared" si="5"/>
@@ -15169,10 +15170,10 @@
         <v>1098</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G325" s="4">
         <f t="shared" si="5"/>
@@ -15193,10 +15194,10 @@
         <v>1099</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="G326" s="4">
         <f t="shared" si="5"/>
@@ -15217,10 +15218,10 @@
         <v>1100</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="G327" s="4">
         <f t="shared" si="5"/>
@@ -15241,10 +15242,10 @@
         <v>1101</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="G328" s="4">
         <f t="shared" si="5"/>
@@ -15265,10 +15266,10 @@
         <v>1102</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="G329" s="4">
         <f t="shared" si="5"/>
@@ -15289,10 +15290,10 @@
         <v>1103</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="G330" s="4">
         <f t="shared" si="5"/>
@@ -15313,10 +15314,10 @@
         <v>1104</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G331" s="4">
         <f t="shared" si="5"/>
@@ -15337,10 +15338,10 @@
         <v>1105</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="G332" s="4">
         <f t="shared" si="5"/>
@@ -15361,10 +15362,10 @@
         <v>1106</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G333" s="4">
         <f t="shared" si="5"/>
@@ -15385,10 +15386,10 @@
         <v>1107</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="G334" s="4">
         <f t="shared" si="5"/>
@@ -15409,10 +15410,10 @@
         <v>1108</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="G335" s="4">
         <f t="shared" si="5"/>
@@ -15433,10 +15434,10 @@
         <v>1109</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G336" s="4">
         <f t="shared" si="5"/>
@@ -15457,10 +15458,10 @@
         <v>1110</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="G337" s="4">
         <f t="shared" si="5"/>
@@ -15481,10 +15482,10 @@
         <v>1111</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G338" s="4">
         <f t="shared" si="5"/>
@@ -15505,10 +15506,10 @@
         <v>1112</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G339" s="4">
         <f t="shared" si="5"/>
@@ -15529,10 +15530,10 @@
         <v>1113</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G340" s="4">
         <f t="shared" si="5"/>
@@ -15553,10 +15554,10 @@
         <v>1114</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G341" s="4">
         <f t="shared" si="5"/>
@@ -15577,10 +15578,10 @@
         <v>1115</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="G342" s="4">
         <f t="shared" si="5"/>
@@ -15601,10 +15602,10 @@
         <v>1116</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G343" s="4">
         <f t="shared" si="5"/>
@@ -15625,10 +15626,10 @@
         <v>1117</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G344" s="4">
         <f t="shared" si="5"/>
@@ -15649,10 +15650,10 @@
         <v>1118</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="G345" s="4">
         <f t="shared" si="5"/>
@@ -15673,10 +15674,10 @@
         <v>1119</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G346" s="4">
         <f t="shared" si="5"/>
@@ -15697,10 +15698,10 @@
         <v>1120</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="G347" s="4">
         <f t="shared" si="5"/>
@@ -15721,10 +15722,10 @@
         <v>1121</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G348" s="4">
         <f t="shared" si="5"/>
@@ -15745,10 +15746,10 @@
         <v>1122</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="G349" s="4">
         <f t="shared" si="5"/>
@@ -15769,10 +15770,10 @@
         <v>1123</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="G350" s="4">
         <f t="shared" si="5"/>
@@ -15793,10 +15794,10 @@
         <v>1124</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G351" s="4">
         <f t="shared" si="5"/>
@@ -15817,10 +15818,10 @@
         <v>1125</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G352" s="4">
         <f t="shared" si="5"/>
@@ -15841,10 +15842,10 @@
         <v>1126</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="G353" s="4">
         <f t="shared" si="5"/>
@@ -15865,10 +15866,10 @@
         <v>1127</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="G354" s="4">
         <f t="shared" si="5"/>
@@ -15889,10 +15890,10 @@
         <v>1128</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G355" s="4">
         <f t="shared" si="5"/>
@@ -15913,7 +15914,7 @@
         <v>1129</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="4">
@@ -15935,10 +15936,10 @@
         <v>1130</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G357" s="4">
         <f t="shared" si="5"/>
@@ -15959,7 +15960,7 @@
         <v>1131</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>1536</v>
@@ -15983,10 +15984,10 @@
         <v>1132</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G359" s="4">
         <f t="shared" si="5"/>
@@ -16007,10 +16008,10 @@
         <v>1133</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G360" s="4">
         <f t="shared" si="5"/>
@@ -16031,10 +16032,10 @@
         <v>1134</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G361" s="4">
         <f t="shared" si="5"/>
@@ -16055,10 +16056,10 @@
         <v>780</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="G362" s="4">
         <f t="shared" si="5"/>
@@ -16079,10 +16080,10 @@
         <v>1135</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G363" s="4">
         <f t="shared" si="5"/>
@@ -16103,10 +16104,10 @@
         <v>1136</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="G364" s="4">
         <f t="shared" si="5"/>
@@ -16127,10 +16128,10 @@
         <v>1137</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="G365" s="4">
         <f t="shared" si="5"/>
@@ -16151,10 +16152,10 @@
         <v>1138</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G366" s="4">
         <f t="shared" si="5"/>
@@ -16175,10 +16176,10 @@
         <v>1139</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G367" s="4">
         <f t="shared" si="5"/>
@@ -16199,10 +16200,10 @@
         <v>1140</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="G368" s="4">
         <f t="shared" si="5"/>
@@ -16223,10 +16224,10 @@
         <v>1141</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G369" s="4">
         <f t="shared" si="5"/>
@@ -16247,10 +16248,10 @@
         <v>1142</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="G370" s="4">
         <f t="shared" si="5"/>
@@ -16271,10 +16272,10 @@
         <v>1143</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G371" s="4">
         <f t="shared" si="5"/>
@@ -16295,10 +16296,10 @@
         <v>1144</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G372" s="4">
         <f t="shared" si="5"/>
@@ -16319,10 +16320,10 @@
         <v>1145</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G373" s="4">
         <f t="shared" si="5"/>
@@ -16343,10 +16344,10 @@
         <v>1146</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G374" s="4">
         <f t="shared" si="5"/>
@@ -16367,10 +16368,10 @@
         <v>1147</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="G375" s="4">
         <f t="shared" si="5"/>
@@ -16391,10 +16392,10 @@
         <v>781</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G376" s="4">
         <f t="shared" si="5"/>
@@ -16415,10 +16416,10 @@
         <v>1148</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="G377" s="4">
         <f t="shared" si="5"/>
@@ -16439,10 +16440,10 @@
         <v>781</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="G378" s="4">
         <f t="shared" si="5"/>
@@ -16463,10 +16464,10 @@
         <v>1149</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G379" s="4">
         <f t="shared" si="5"/>
@@ -16487,10 +16488,10 @@
         <v>281</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="G380" s="4">
         <f t="shared" si="5"/>
@@ -16511,10 +16512,10 @@
         <v>1150</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="G381" s="4">
         <f t="shared" si="5"/>
@@ -16535,10 +16536,10 @@
         <v>1151</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="G382" s="4">
         <f t="shared" si="5"/>
@@ -16559,10 +16560,10 @@
         <v>1152</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="G383" s="4">
         <f t="shared" si="5"/>
@@ -16583,10 +16584,10 @@
         <v>1153</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="G384" s="4">
         <f t="shared" si="5"/>
@@ -16607,10 +16608,10 @@
         <v>1154</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="G385" s="4">
         <f t="shared" si="5"/>
@@ -16631,10 +16632,10 @@
         <v>1155</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G386" s="4">
         <f t="shared" ref="G386:G449" si="6">LEN(F386)</f>
@@ -16655,10 +16656,10 @@
         <v>1156</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G387" s="4">
         <f t="shared" si="6"/>
@@ -16679,10 +16680,10 @@
         <v>1157</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="G388" s="4">
         <f t="shared" si="6"/>
@@ -16703,10 +16704,10 @@
         <v>782</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="G389" s="4">
         <f t="shared" si="6"/>
@@ -16727,10 +16728,10 @@
         <v>1158</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="G390" s="4">
         <f t="shared" si="6"/>
@@ -16751,10 +16752,10 @@
         <v>1159</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="G391" s="4">
         <f t="shared" si="6"/>
@@ -16775,10 +16776,10 @@
         <v>1160</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="G392" s="4">
         <f t="shared" si="6"/>
@@ -16799,10 +16800,10 @@
         <v>1161</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="G393" s="4">
         <f t="shared" si="6"/>
@@ -16823,10 +16824,10 @@
         <v>1162</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G394" s="4">
         <f t="shared" si="6"/>
@@ -16847,10 +16848,10 @@
         <v>1163</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="G395" s="4">
         <f t="shared" si="6"/>
@@ -16871,10 +16872,10 @@
         <v>1164</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G396" s="4">
         <f t="shared" si="6"/>
@@ -16895,10 +16896,10 @@
         <v>1165</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G397" s="4">
         <f t="shared" si="6"/>
@@ -16919,10 +16920,10 @@
         <v>1166</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G398" s="4">
         <f t="shared" si="6"/>
@@ -16943,10 +16944,10 @@
         <v>1167</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G399" s="4">
         <f t="shared" si="6"/>
@@ -16967,10 +16968,10 @@
         <v>1168</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G400" s="4">
         <f t="shared" si="6"/>
@@ -16991,10 +16992,10 @@
         <v>1169</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="G401" s="4">
         <f t="shared" si="6"/>
@@ -17015,10 +17016,10 @@
         <v>1170</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G402" s="4">
         <f t="shared" si="6"/>
@@ -17039,10 +17040,10 @@
         <v>1171</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="G403" s="4">
         <f t="shared" si="6"/>
@@ -17063,10 +17064,10 @@
         <v>1172</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G404" s="4">
         <f t="shared" si="6"/>
@@ -17087,10 +17088,10 @@
         <v>1173</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G405" s="4">
         <f t="shared" si="6"/>
@@ -17111,10 +17112,10 @@
         <v>1174</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="G406" s="4">
         <f t="shared" si="6"/>
@@ -17135,10 +17136,10 @@
         <v>1175</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G407" s="4">
         <f t="shared" si="6"/>
@@ -17159,10 +17160,10 @@
         <v>1176</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="G408" s="4">
         <f t="shared" si="6"/>
@@ -17183,10 +17184,10 @@
         <v>1177</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G409" s="4">
         <f t="shared" si="6"/>
@@ -17207,10 +17208,10 @@
         <v>1178</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="G410" s="4">
         <f t="shared" si="6"/>
@@ -17231,10 +17232,10 @@
         <v>1179</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G411" s="4">
         <f t="shared" si="6"/>
@@ -17255,10 +17256,10 @@
         <v>1180</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G412" s="4">
         <f t="shared" si="6"/>
@@ -17279,10 +17280,10 @@
         <v>1181</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="G413" s="4">
         <f t="shared" si="6"/>
@@ -17303,10 +17304,10 @@
         <v>1182</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="G414" s="4">
         <f t="shared" si="6"/>
@@ -17327,10 +17328,10 @@
         <v>1183</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G415" s="4">
         <f t="shared" si="6"/>
@@ -17351,10 +17352,10 @@
         <v>1184</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G416" s="4">
         <f t="shared" si="6"/>
@@ -17375,10 +17376,10 @@
         <v>1185</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="G417" s="4">
         <f t="shared" si="6"/>
@@ -17399,10 +17400,10 @@
         <v>1186</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G418" s="4">
         <f t="shared" si="6"/>
@@ -17423,10 +17424,10 @@
         <v>1187</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G419" s="4">
         <f t="shared" si="6"/>
@@ -17447,10 +17448,10 @@
         <v>1188</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G420" s="4">
         <f t="shared" si="6"/>
@@ -17471,10 +17472,10 @@
         <v>1189</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G421" s="4">
         <f t="shared" si="6"/>
@@ -17495,10 +17496,10 @@
         <v>1190</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="G422" s="4">
         <f t="shared" si="6"/>
@@ -17519,10 +17520,10 @@
         <v>1191</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G423" s="4">
         <f t="shared" si="6"/>
@@ -17543,10 +17544,10 @@
         <v>1192</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G424" s="4">
         <f t="shared" si="6"/>
@@ -17567,10 +17568,10 @@
         <v>1193</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="G425" s="4">
         <f t="shared" si="6"/>
@@ -17591,10 +17592,10 @@
         <v>1194</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G426" s="4">
         <f t="shared" si="6"/>
@@ -17615,10 +17616,10 @@
         <v>1195</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G427" s="4">
         <f t="shared" si="6"/>
@@ -17639,10 +17640,10 @@
         <v>1196</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="G428" s="4">
         <f t="shared" si="6"/>
@@ -17663,10 +17664,10 @@
         <v>1197</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="G429" s="4">
         <f t="shared" si="6"/>
@@ -17687,10 +17688,10 @@
         <v>1198</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G430" s="4">
         <f t="shared" si="6"/>
@@ -17711,10 +17712,10 @@
         <v>1199</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G431" s="4">
         <f t="shared" si="6"/>
@@ -17735,10 +17736,10 @@
         <v>1200</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G432" s="4">
         <f t="shared" si="6"/>
@@ -17759,10 +17760,10 @@
         <v>1201</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G433" s="4">
         <f t="shared" si="6"/>
@@ -17783,10 +17784,10 @@
         <v>1202</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G434" s="4">
         <f t="shared" si="6"/>
@@ -17807,10 +17808,10 @@
         <v>1203</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="G435" s="4">
         <f t="shared" si="6"/>
@@ -17831,10 +17832,10 @@
         <v>1204</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G436" s="4">
         <f t="shared" si="6"/>
@@ -17855,10 +17856,10 @@
         <v>783</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G437" s="4">
         <f t="shared" si="6"/>
@@ -17879,10 +17880,10 @@
         <v>1205</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G438" s="4">
         <f t="shared" si="6"/>
@@ -17903,10 +17904,10 @@
         <v>1206</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F439" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G439" s="4">
         <f t="shared" si="6"/>
@@ -17927,10 +17928,10 @@
         <v>1207</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="G440" s="4">
         <f t="shared" si="6"/>
@@ -17951,10 +17952,10 @@
         <v>1208</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="G441" s="4">
         <f t="shared" si="6"/>
@@ -17975,10 +17976,10 @@
         <v>1209</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="G442" s="4">
         <f t="shared" si="6"/>
@@ -17999,10 +18000,10 @@
         <v>1210</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G443" s="4">
         <f t="shared" si="6"/>
@@ -18023,10 +18024,10 @@
         <v>1211</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G444" s="4">
         <f t="shared" si="6"/>
@@ -18047,10 +18048,10 @@
         <v>1212</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G445" s="4">
         <f t="shared" si="6"/>
@@ -18071,10 +18072,10 @@
         <v>1213</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="G446" s="4">
         <f t="shared" si="6"/>
@@ -18095,10 +18096,10 @@
         <v>1214</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G447" s="4">
         <f t="shared" si="6"/>
@@ -18119,10 +18120,10 @@
         <v>1215</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="G448" s="4">
         <f t="shared" si="6"/>
@@ -18143,10 +18144,10 @@
         <v>1216</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="G449" s="4">
         <f t="shared" si="6"/>
@@ -18167,10 +18168,10 @@
         <v>1217</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="G450" s="4">
         <f t="shared" ref="G450:G513" si="7">LEN(F450)</f>
@@ -18191,10 +18192,10 @@
         <v>1218</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G451" s="4">
         <f t="shared" si="7"/>
@@ -18215,10 +18216,10 @@
         <v>1219</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="G452" s="4">
         <f t="shared" si="7"/>
@@ -18239,10 +18240,10 @@
         <v>1220</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G453" s="4">
         <f t="shared" si="7"/>
@@ -18263,10 +18264,10 @@
         <v>1221</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="G454" s="4">
         <f t="shared" si="7"/>
@@ -18287,10 +18288,10 @@
         <v>1222</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G455" s="4">
         <f t="shared" si="7"/>
@@ -18311,10 +18312,10 @@
         <v>1223</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G456" s="4">
         <f t="shared" si="7"/>
@@ -18335,10 +18336,10 @@
         <v>1224</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="G457" s="4">
         <f t="shared" si="7"/>
@@ -18359,10 +18360,10 @@
         <v>1225</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G458" s="4">
         <f t="shared" si="7"/>
@@ -18383,10 +18384,10 @@
         <v>1226</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G459" s="4">
         <f t="shared" si="7"/>
@@ -18407,10 +18408,10 @@
         <v>1227</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="G460" s="4">
         <f t="shared" si="7"/>
@@ -18431,10 +18432,10 @@
         <v>1228</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G461" s="4">
         <f t="shared" si="7"/>
@@ -18455,10 +18456,10 @@
         <v>1229</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="G462" s="4">
         <f t="shared" si="7"/>
@@ -18479,10 +18480,10 @@
         <v>1230</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G463" s="4">
         <f t="shared" si="7"/>
@@ -18503,10 +18504,10 @@
         <v>1231</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="G464" s="4">
         <f t="shared" si="7"/>
@@ -18527,10 +18528,10 @@
         <v>1232</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G465" s="4">
         <f t="shared" si="7"/>
@@ -18551,10 +18552,10 @@
         <v>1233</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G466" s="4">
         <f t="shared" si="7"/>
@@ -18575,10 +18576,10 @@
         <v>1234</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G467" s="4">
         <f t="shared" si="7"/>
@@ -18599,10 +18600,10 @@
         <v>1235</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G468" s="4">
         <f t="shared" si="7"/>
@@ -18623,10 +18624,10 @@
         <v>1236</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G469" s="4">
         <f t="shared" si="7"/>
@@ -18647,10 +18648,10 @@
         <v>1237</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="G470" s="4">
         <f t="shared" si="7"/>
@@ -18671,10 +18672,10 @@
         <v>1238</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="G471" s="4">
         <f t="shared" si="7"/>
@@ -18695,10 +18696,10 @@
         <v>1239</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G472" s="4">
         <f t="shared" si="7"/>
@@ -18719,10 +18720,10 @@
         <v>1240</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G473" s="4">
         <f t="shared" si="7"/>
@@ -18743,10 +18744,10 @@
         <v>1241</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G474" s="4">
         <f t="shared" si="7"/>
@@ -18767,10 +18768,10 @@
         <v>1242</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G475" s="4">
         <f t="shared" si="7"/>
@@ -18791,10 +18792,10 @@
         <v>1243</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G476" s="4">
         <f t="shared" si="7"/>
@@ -18815,10 +18816,10 @@
         <v>1244</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G477" s="4">
         <f t="shared" si="7"/>
@@ -18839,10 +18840,10 @@
         <v>1245</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G478" s="4">
         <f t="shared" si="7"/>
@@ -18863,10 +18864,10 @@
         <v>1246</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G479" s="4">
         <f t="shared" si="7"/>
@@ -18887,10 +18888,10 @@
         <v>1247</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G480" s="4">
         <f t="shared" si="7"/>
@@ -18911,10 +18912,10 @@
         <v>1248</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G481" s="4">
         <f t="shared" si="7"/>
@@ -18935,10 +18936,10 @@
         <v>1249</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="G482" s="4">
         <f t="shared" si="7"/>
@@ -18959,10 +18960,10 @@
         <v>1250</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G483" s="4">
         <f t="shared" si="7"/>
@@ -18981,7 +18982,7 @@
       </c>
       <c r="D484" s="2"/>
       <c r="E484" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>1528</v>
@@ -19005,10 +19006,10 @@
         <v>1251</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G485" s="4">
         <f t="shared" si="7"/>
@@ -19029,10 +19030,10 @@
         <v>1252</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="G486" s="4">
         <f t="shared" si="7"/>
@@ -19053,10 +19054,10 @@
         <v>1253</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F487" s="2" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="G487" s="4">
         <f t="shared" si="7"/>
@@ -19077,10 +19078,10 @@
         <v>1254</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="G488" s="4">
         <f t="shared" si="7"/>
@@ -19101,10 +19102,10 @@
         <v>1255</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="G489" s="4">
         <f t="shared" si="7"/>
@@ -19125,10 +19126,10 @@
         <v>1256</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="G490" s="4">
         <f t="shared" si="7"/>
@@ -19149,7 +19150,7 @@
         <v>1257</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>276</v>
@@ -19173,10 +19174,10 @@
         <v>1258</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="G492" s="4">
         <f t="shared" si="7"/>
@@ -19197,10 +19198,10 @@
         <v>1259</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="G493" s="4">
         <f t="shared" si="7"/>
@@ -19221,10 +19222,10 @@
         <v>1260</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G494" s="4">
         <f t="shared" si="7"/>
@@ -19245,10 +19246,10 @@
         <v>1261</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F495" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="G495" s="4">
         <f t="shared" si="7"/>
@@ -19269,10 +19270,10 @@
         <v>1262</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="G496" s="4">
         <f t="shared" si="7"/>
@@ -19293,10 +19294,10 @@
         <v>1263</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="G497" s="4">
         <f t="shared" si="7"/>
@@ -19317,10 +19318,10 @@
         <v>1264</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="G498" s="4">
         <f t="shared" si="7"/>
@@ -19341,7 +19342,7 @@
         <v>1265</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F499" s="3" t="s">
         <v>1534</v>
@@ -19365,10 +19366,10 @@
         <v>1266</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="G500" s="4">
         <f t="shared" si="7"/>
@@ -19389,10 +19390,10 @@
         <v>1267</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="G501" s="4">
         <f t="shared" si="7"/>
@@ -19413,10 +19414,10 @@
         <v>1268</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="G502" s="4">
         <f t="shared" si="7"/>
@@ -19437,10 +19438,10 @@
         <v>1269</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="G503" s="4">
         <f t="shared" si="7"/>
@@ -19461,10 +19462,10 @@
         <v>1270</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="G504" s="4">
         <f t="shared" si="7"/>
@@ -19485,10 +19486,10 @@
         <v>1271</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="G505" s="4">
         <f t="shared" si="7"/>
@@ -19509,10 +19510,10 @@
         <v>1272</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="G506" s="4">
         <f t="shared" si="7"/>
@@ -19533,10 +19534,10 @@
         <v>1273</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="G507" s="4">
         <f t="shared" si="7"/>
@@ -19557,10 +19558,10 @@
         <v>1274</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="G508" s="4">
         <f t="shared" si="7"/>
@@ -19581,10 +19582,10 @@
         <v>1275</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="G509" s="4">
         <f t="shared" si="7"/>
@@ -19605,10 +19606,10 @@
         <v>1276</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="G510" s="4">
         <f t="shared" si="7"/>
@@ -19629,10 +19630,10 @@
         <v>1277</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F511" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G511" s="4">
         <f t="shared" si="7"/>
@@ -19653,10 +19654,10 @@
         <v>784</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G512" s="4">
         <f t="shared" si="7"/>
@@ -19677,10 +19678,10 @@
         <v>1278</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="G513" s="4">
         <f t="shared" si="7"/>
@@ -19701,10 +19702,10 @@
         <v>1279</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="G514" s="4">
         <f t="shared" ref="G514:G577" si="8">LEN(F514)</f>
@@ -19725,10 +19726,10 @@
         <v>1280</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="G515" s="4">
         <f t="shared" si="8"/>
@@ -19749,10 +19750,10 @@
         <v>776</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="G516" s="4">
         <f t="shared" si="8"/>
@@ -19773,10 +19774,10 @@
         <v>1281</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="G517" s="4">
         <f t="shared" si="8"/>
@@ -19797,10 +19798,10 @@
         <v>1282</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="G518" s="4">
         <f t="shared" si="8"/>
@@ -19821,10 +19822,10 @@
         <v>1283</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="G519" s="4">
         <f t="shared" si="8"/>
@@ -19845,10 +19846,10 @@
         <v>1284</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="G520" s="4">
         <f t="shared" si="8"/>
@@ -19869,10 +19870,10 @@
         <v>1285</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="G521" s="4">
         <f t="shared" si="8"/>
@@ -19893,10 +19894,10 @@
         <v>1286</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="G522" s="4">
         <f t="shared" si="8"/>
@@ -19917,10 +19918,10 @@
         <v>1287</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F523" s="3" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G523" s="4">
         <f t="shared" si="8"/>
@@ -19941,10 +19942,10 @@
         <v>1288</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="G524" s="4">
         <f t="shared" si="8"/>
@@ -19965,10 +19966,10 @@
         <v>1289</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F525" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="G525" s="4">
         <f t="shared" si="8"/>
@@ -19989,10 +19990,10 @@
         <v>1290</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F526" s="3" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G526" s="4">
         <f t="shared" si="8"/>
@@ -20013,10 +20014,10 @@
         <v>1291</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F527" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G527" s="4">
         <f t="shared" si="8"/>
@@ -20037,10 +20038,10 @@
         <v>1292</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="G528" s="4">
         <f t="shared" si="8"/>
@@ -20061,10 +20062,10 @@
         <v>1293</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="G529" s="4">
         <f t="shared" si="8"/>
@@ -20085,10 +20086,10 @@
         <v>1294</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="G530" s="4">
         <f t="shared" si="8"/>
@@ -20109,10 +20110,10 @@
         <v>1295</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G531" s="4">
         <f t="shared" si="8"/>
@@ -20133,10 +20134,10 @@
         <v>1296</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="G532" s="4">
         <f t="shared" si="8"/>
@@ -20157,10 +20158,10 @@
         <v>1297</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F533" s="3" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G533" s="4">
         <f t="shared" si="8"/>
@@ -20181,10 +20182,10 @@
         <v>1298</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="G534" s="4">
         <f t="shared" si="8"/>
@@ -20205,10 +20206,10 @@
         <v>1299</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="G535" s="4">
         <f t="shared" si="8"/>
@@ -20229,7 +20230,7 @@
         <v>1300</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>127</v>
@@ -20253,10 +20254,10 @@
         <v>1301</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="G537" s="4">
         <f t="shared" si="8"/>
@@ -20277,10 +20278,10 @@
         <v>1302</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F538" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="G538" s="4">
         <f t="shared" si="8"/>
@@ -20301,10 +20302,10 @@
         <v>1303</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F539" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G539" s="4">
         <f t="shared" si="8"/>
@@ -20325,10 +20326,10 @@
         <v>1304</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="G540" s="4">
         <f t="shared" si="8"/>
@@ -20349,10 +20350,10 @@
         <v>1305</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="G541" s="4">
         <f t="shared" si="8"/>
@@ -20373,10 +20374,10 @@
         <v>1306</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="G542" s="4">
         <f t="shared" si="8"/>
@@ -20397,10 +20398,10 @@
         <v>1307</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="G543" s="4">
         <f t="shared" si="8"/>
@@ -20421,10 +20422,10 @@
         <v>1308</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="G544" s="4">
         <f t="shared" si="8"/>
@@ -20445,10 +20446,10 @@
         <v>1309</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="G545" s="4">
         <f t="shared" si="8"/>
@@ -20469,10 +20470,10 @@
         <v>1310</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F546" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G546" s="4">
         <f t="shared" si="8"/>
@@ -20493,10 +20494,10 @@
         <v>1311</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="G547" s="4">
         <f t="shared" si="8"/>
@@ -20517,10 +20518,10 @@
         <v>1312</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F548" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G548" s="4">
         <f t="shared" si="8"/>
@@ -20541,10 +20542,10 @@
         <v>1313</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="G549" s="4">
         <f t="shared" si="8"/>
@@ -20565,7 +20566,7 @@
         <v>1314</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F550" s="2" t="s">
         <v>543</v>
@@ -20589,10 +20590,10 @@
         <v>1315</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="G551" s="4">
         <f t="shared" si="8"/>
@@ -20613,10 +20614,10 @@
         <v>1316</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="G552" s="4">
         <f t="shared" si="8"/>
@@ -20637,10 +20638,10 @@
         <v>785</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F553" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G553" s="4">
         <f t="shared" si="8"/>
@@ -20661,10 +20662,10 @@
         <v>1317</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F554" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G554" s="4">
         <f t="shared" si="8"/>
@@ -20683,7 +20684,7 @@
       </c>
       <c r="D555" s="2"/>
       <c r="E555" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>1521</v>
@@ -20707,10 +20708,10 @@
         <v>1318</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F556" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="G556" s="4">
         <f t="shared" si="8"/>
@@ -20731,10 +20732,10 @@
         <v>1319</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G557" s="4">
         <f t="shared" si="8"/>
@@ -20755,10 +20756,10 @@
         <v>1320</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="G558" s="4">
         <f t="shared" si="8"/>
@@ -20779,10 +20780,10 @@
         <v>1321</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="G559" s="4">
         <f t="shared" si="8"/>
@@ -20803,10 +20804,10 @@
         <v>786</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="G560" s="4">
         <f t="shared" si="8"/>
@@ -20827,10 +20828,10 @@
         <v>1322</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G561" s="4">
         <f t="shared" si="8"/>
@@ -20851,10 +20852,10 @@
         <v>1323</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F562" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="G562" s="4">
         <f t="shared" si="8"/>
@@ -20875,10 +20876,10 @@
         <v>1324</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="G563" s="4">
         <f t="shared" si="8"/>
@@ -20899,10 +20900,10 @@
         <v>1325</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="G564" s="4">
         <f t="shared" si="8"/>
@@ -20923,10 +20924,10 @@
         <v>1326</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G565" s="4">
         <f t="shared" si="8"/>
@@ -20947,10 +20948,10 @@
         <v>1327</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F566" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G566" s="4">
         <f t="shared" si="8"/>
@@ -20971,10 +20972,10 @@
         <v>1328</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G567" s="4">
         <f t="shared" si="8"/>
@@ -20995,10 +20996,10 @@
         <v>1329</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F568" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="G568" s="4">
         <f t="shared" si="8"/>
@@ -21019,10 +21020,10 @@
         <v>1330</v>
       </c>
       <c r="E569" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F569" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G569" s="4">
         <f t="shared" si="8"/>
@@ -21043,10 +21044,10 @@
         <v>1331</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F570" s="2" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="G570" s="4">
         <f t="shared" si="8"/>
@@ -21067,10 +21068,10 @@
         <v>1332</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="G571" s="4">
         <f t="shared" si="8"/>
@@ -21091,10 +21092,10 @@
         <v>1333</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="G572" s="4">
         <f t="shared" si="8"/>
@@ -21115,10 +21116,10 @@
         <v>1334</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F573" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="G573" s="4">
         <f t="shared" si="8"/>
@@ -21139,10 +21140,10 @@
         <v>1335</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="G574" s="4">
         <f t="shared" si="8"/>
@@ -21163,10 +21164,10 @@
         <v>1336</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F575" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="G575" s="4">
         <f t="shared" si="8"/>
@@ -21187,10 +21188,10 @@
         <v>1337</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="G576" s="4">
         <f t="shared" si="8"/>
@@ -21211,10 +21212,10 @@
         <v>1338</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="G577" s="4">
         <f t="shared" si="8"/>
@@ -21235,10 +21236,10 @@
         <v>1339</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="G578" s="4">
         <f t="shared" ref="G578:G641" si="9">LEN(F578)</f>
@@ -21259,10 +21260,10 @@
         <v>1340</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="G579" s="4">
         <f t="shared" si="9"/>
@@ -21283,10 +21284,10 @@
         <v>1341</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="G580" s="4">
         <f t="shared" si="9"/>
@@ -21307,10 +21308,10 @@
         <v>1342</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="G581" s="4">
         <f t="shared" si="9"/>
@@ -21331,10 +21332,10 @@
         <v>1343</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="G582" s="4">
         <f t="shared" si="9"/>
@@ -21355,10 +21356,10 @@
         <v>1344</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F583" s="3" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G583" s="4">
         <f t="shared" si="9"/>
@@ -21379,10 +21380,10 @@
         <v>1345</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="G584" s="4">
         <f t="shared" si="9"/>
@@ -21403,10 +21404,10 @@
         <v>1346</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F585" s="2" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="G585" s="4">
         <f t="shared" si="9"/>
@@ -21427,10 +21428,10 @@
         <v>1347</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G586" s="4">
         <f t="shared" si="9"/>
@@ -21451,10 +21452,10 @@
         <v>1348</v>
       </c>
       <c r="E587" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="G587" s="4">
         <f t="shared" si="9"/>
@@ -21475,10 +21476,10 @@
         <v>1349</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F588" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="G588" s="4">
         <f t="shared" si="9"/>
@@ -21499,10 +21500,10 @@
         <v>1350</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="G589" s="4">
         <f t="shared" si="9"/>
@@ -21523,10 +21524,10 @@
         <v>1351</v>
       </c>
       <c r="E590" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F590" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G590" s="4">
         <f t="shared" si="9"/>
@@ -21547,10 +21548,10 @@
         <v>1352</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F591" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="G591" s="4">
         <f t="shared" si="9"/>
@@ -21571,10 +21572,10 @@
         <v>1353</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="G592" s="4">
         <f t="shared" si="9"/>
@@ -21595,10 +21596,10 @@
         <v>1354</v>
       </c>
       <c r="E593" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F593" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G593" s="4">
         <f t="shared" si="9"/>
@@ -21619,10 +21620,10 @@
         <v>1355</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="G594" s="4">
         <f t="shared" si="9"/>
@@ -21643,10 +21644,10 @@
         <v>1356</v>
       </c>
       <c r="E595" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="G595" s="4">
         <f t="shared" si="9"/>
@@ -21667,10 +21668,10 @@
         <v>1357</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="G596" s="4">
         <f t="shared" si="9"/>
@@ -21691,10 +21692,10 @@
         <v>1358</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="G597" s="4">
         <f t="shared" si="9"/>
@@ -21715,10 +21716,10 @@
         <v>1359</v>
       </c>
       <c r="E598" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="G598" s="4">
         <f t="shared" si="9"/>
@@ -21739,10 +21740,10 @@
         <v>1360</v>
       </c>
       <c r="E599" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="G599" s="4">
         <f t="shared" si="9"/>
@@ -21763,10 +21764,10 @@
         <v>1361</v>
       </c>
       <c r="E600" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F600" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="G600" s="4">
         <f t="shared" si="9"/>
@@ -21787,10 +21788,10 @@
         <v>787</v>
       </c>
       <c r="E601" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="G601" s="4">
         <f t="shared" si="9"/>
@@ -21811,10 +21812,10 @@
         <v>1362</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="G602" s="4">
         <f t="shared" si="9"/>
@@ -21835,10 +21836,10 @@
         <v>1363</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="G603" s="4">
         <f t="shared" si="9"/>
@@ -21859,10 +21860,10 @@
         <v>1364</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="G604" s="4">
         <f t="shared" si="9"/>
@@ -21883,10 +21884,10 @@
         <v>1365</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F605" s="2" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="G605" s="4">
         <f t="shared" si="9"/>
@@ -21907,10 +21908,10 @@
         <v>1366</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F606" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="G606" s="4">
         <f t="shared" si="9"/>
@@ -21931,10 +21932,10 @@
         <v>1367</v>
       </c>
       <c r="E607" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F607" s="2" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="G607" s="4">
         <f t="shared" si="9"/>
@@ -21955,10 +21956,10 @@
         <v>1368</v>
       </c>
       <c r="E608" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="G608" s="4">
         <f t="shared" si="9"/>
@@ -21979,10 +21980,10 @@
         <v>1369</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F609" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G609" s="4">
         <f t="shared" si="9"/>
@@ -22003,10 +22004,10 @@
         <v>1370</v>
       </c>
       <c r="E610" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F610" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G610" s="4">
         <f t="shared" si="9"/>
@@ -22027,10 +22028,10 @@
         <v>1371</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F611" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G611" s="4">
         <f t="shared" si="9"/>
@@ -22051,10 +22052,10 @@
         <v>1372</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F612" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="G612" s="4">
         <f t="shared" si="9"/>
@@ -22075,10 +22076,10 @@
         <v>1373</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="G613" s="4">
         <f t="shared" si="9"/>
@@ -22099,10 +22100,10 @@
         <v>1374</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="G614" s="4">
         <f t="shared" si="9"/>
@@ -22123,10 +22124,10 @@
         <v>1375</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="G615" s="4">
         <f t="shared" si="9"/>
@@ -22147,10 +22148,10 @@
         <v>1376</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G616" s="4">
         <f t="shared" si="9"/>
@@ -22171,10 +22172,10 @@
         <v>1377</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="G617" s="4">
         <f t="shared" si="9"/>
@@ -22195,10 +22196,10 @@
         <v>1378</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F618" s="2" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="G618" s="4">
         <f t="shared" si="9"/>
@@ -22219,10 +22220,10 @@
         <v>788</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F619" s="2" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="G619" s="4">
         <f t="shared" si="9"/>
@@ -22243,10 +22244,10 @@
         <v>1379</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F620" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="G620" s="4">
         <f t="shared" si="9"/>
@@ -22267,10 +22268,10 @@
         <v>1380</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F621" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G621" s="4">
         <f t="shared" si="9"/>
@@ -22291,10 +22292,10 @@
         <v>1381</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="G622" s="4">
         <f t="shared" si="9"/>
@@ -22315,10 +22316,10 @@
         <v>1382</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F623" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G623" s="4">
         <f t="shared" si="9"/>
@@ -22339,10 +22340,10 @@
         <v>1383</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F624" s="3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G624" s="4">
         <f t="shared" si="9"/>
@@ -22363,10 +22364,10 @@
         <v>1384</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F625" s="3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G625" s="4">
         <f t="shared" si="9"/>
@@ -22387,10 +22388,10 @@
         <v>1385</v>
       </c>
       <c r="E626" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F626" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="G626" s="4">
         <f t="shared" si="9"/>
@@ -22409,7 +22410,7 @@
       </c>
       <c r="D627" s="2"/>
       <c r="E627" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F627" s="2" t="s">
         <v>1526</v>
@@ -22433,10 +22434,10 @@
         <v>1386</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F628" s="3" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="G628" s="4">
         <f t="shared" si="9"/>
@@ -22457,10 +22458,10 @@
         <v>1387</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G629" s="4">
         <f t="shared" si="9"/>
@@ -22481,10 +22482,10 @@
         <v>1388</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F630" s="2" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="G630" s="4">
         <f t="shared" si="9"/>
@@ -22505,10 +22506,10 @@
         <v>1389</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F631" s="2" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="G631" s="4">
         <f t="shared" si="9"/>
@@ -22529,10 +22530,10 @@
         <v>1390</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F632" s="2" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="G632" s="4">
         <f t="shared" si="9"/>
@@ -22553,10 +22554,10 @@
         <v>1391</v>
       </c>
       <c r="E633" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="G633" s="4">
         <f t="shared" si="9"/>
@@ -22577,10 +22578,10 @@
         <v>1392</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F634" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="G634" s="4">
         <f t="shared" si="9"/>
@@ -22601,10 +22602,10 @@
         <v>1393</v>
       </c>
       <c r="E635" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="G635" s="4">
         <f t="shared" si="9"/>
@@ -22625,10 +22626,10 @@
         <v>1394</v>
       </c>
       <c r="E636" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="G636" s="4">
         <f t="shared" si="9"/>
@@ -22649,10 +22650,10 @@
         <v>1395</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F637" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G637" s="4">
         <f t="shared" si="9"/>
@@ -22673,10 +22674,10 @@
         <v>777</v>
       </c>
       <c r="E638" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F638" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="G638" s="4">
         <f t="shared" si="9"/>
@@ -22697,10 +22698,10 @@
         <v>1396</v>
       </c>
       <c r="E639" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F639" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G639" s="4">
         <f t="shared" si="9"/>
@@ -22721,10 +22722,10 @@
         <v>1397</v>
       </c>
       <c r="E640" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F640" s="2" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="G640" s="4">
         <f t="shared" si="9"/>
@@ -22745,10 +22746,10 @@
         <v>1398</v>
       </c>
       <c r="E641" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="G641" s="4">
         <f t="shared" si="9"/>
@@ -22769,10 +22770,10 @@
         <v>1399</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F642" s="3" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="G642" s="4">
         <f t="shared" ref="G642:G705" si="10">LEN(F642)</f>
@@ -22793,10 +22794,10 @@
         <v>1400</v>
       </c>
       <c r="E643" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F643" s="2" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="G643" s="4">
         <f t="shared" si="10"/>
@@ -22817,10 +22818,10 @@
         <v>1401</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F644" s="2" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="G644" s="4">
         <f t="shared" si="10"/>
@@ -22841,10 +22842,10 @@
         <v>1402</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F645" s="2" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G645" s="4">
         <f t="shared" si="10"/>
@@ -22865,10 +22866,10 @@
         <v>1403</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="G646" s="4">
         <f t="shared" si="10"/>
@@ -22889,10 +22890,10 @@
         <v>1404</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F647" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="G647" s="4">
         <f t="shared" si="10"/>
@@ -22913,10 +22914,10 @@
         <v>1405</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F648" s="3" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G648" s="4">
         <f t="shared" si="10"/>
@@ -22937,10 +22938,10 @@
         <v>1406</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="G649" s="4">
         <f t="shared" si="10"/>
@@ -22961,10 +22962,10 @@
         <v>1407</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F650" s="2" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G650" s="4">
         <f t="shared" si="10"/>
@@ -22985,10 +22986,10 @@
         <v>1408</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F651" s="2" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="G651" s="4">
         <f t="shared" si="10"/>
@@ -23009,10 +23010,10 @@
         <v>1409</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F652" s="2" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="G652" s="4">
         <f t="shared" si="10"/>
@@ -23033,10 +23034,10 @@
         <v>1410</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F653" s="2" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="G653" s="4">
         <f t="shared" si="10"/>
@@ -23057,10 +23058,10 @@
         <v>1411</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F654" s="2" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G654" s="4">
         <f t="shared" si="10"/>
@@ -23081,10 +23082,10 @@
         <v>1412</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F655" s="2" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="G655" s="4">
         <f t="shared" si="10"/>
@@ -23105,10 +23106,10 @@
         <v>1413</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F656" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G656" s="4">
         <f t="shared" si="10"/>
@@ -23129,10 +23130,10 @@
         <v>1414</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F657" s="2" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="G657" s="4">
         <f t="shared" si="10"/>
@@ -23153,10 +23154,10 @@
         <v>1415</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F658" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G658" s="4">
         <f t="shared" si="10"/>
@@ -23177,10 +23178,10 @@
         <v>1416</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F659" s="3" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="G659" s="4">
         <f t="shared" si="10"/>
@@ -23201,10 +23202,10 @@
         <v>1417</v>
       </c>
       <c r="E660" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F660" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G660" s="4">
         <f t="shared" si="10"/>
@@ -23225,7 +23226,7 @@
         <v>1418</v>
       </c>
       <c r="E661" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F661" s="2" t="s">
         <v>253</v>
@@ -23249,10 +23250,10 @@
         <v>1419</v>
       </c>
       <c r="E662" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F662" s="2" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G662" s="4">
         <f t="shared" si="10"/>
@@ -23273,10 +23274,10 @@
         <v>1420</v>
       </c>
       <c r="E663" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F663" s="2" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="G663" s="4">
         <f t="shared" si="10"/>
@@ -23297,10 +23298,10 @@
         <v>1421</v>
       </c>
       <c r="E664" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F664" s="2" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="G664" s="4">
         <f t="shared" si="10"/>
@@ -23321,10 +23322,10 @@
         <v>1422</v>
       </c>
       <c r="E665" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F665" s="2" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="G665" s="4">
         <f t="shared" si="10"/>
@@ -23345,10 +23346,10 @@
         <v>1423</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F666" s="2" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="G666" s="4">
         <f t="shared" si="10"/>
@@ -23369,10 +23370,10 @@
         <v>1424</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="G667" s="4">
         <f t="shared" si="10"/>
@@ -23393,10 +23394,10 @@
         <v>1425</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F668" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G668" s="4">
         <f t="shared" si="10"/>
@@ -23417,10 +23418,10 @@
         <v>1426</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F669" s="2" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G669" s="4">
         <f t="shared" si="10"/>
@@ -23441,10 +23442,10 @@
         <v>1427</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F670" s="2" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G670" s="4">
         <f t="shared" si="10"/>
@@ -23465,10 +23466,10 @@
         <v>1428</v>
       </c>
       <c r="E671" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F671" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="G671" s="4">
         <f t="shared" si="10"/>
@@ -23489,10 +23490,10 @@
         <v>1429</v>
       </c>
       <c r="E672" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F672" s="2" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="G672" s="4">
         <f t="shared" si="10"/>
@@ -23513,10 +23514,10 @@
         <v>1430</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F673" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G673" s="4">
         <f t="shared" si="10"/>
@@ -23537,10 +23538,10 @@
         <v>1431</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F674" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="G674" s="4">
         <f t="shared" si="10"/>
@@ -23561,10 +23562,10 @@
         <v>1432</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F675" s="2" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G675" s="4">
         <f t="shared" si="10"/>
@@ -23585,10 +23586,10 @@
         <v>1433</v>
       </c>
       <c r="E676" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="G676" s="4">
         <f t="shared" si="10"/>
@@ -23609,10 +23610,10 @@
         <v>1434</v>
       </c>
       <c r="E677" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="G677" s="4">
         <f t="shared" si="10"/>
@@ -23633,10 +23634,10 @@
         <v>1435</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F678" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G678" s="4">
         <f t="shared" si="10"/>
@@ -23657,10 +23658,10 @@
         <v>1436</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F679" s="2" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="G679" s="4">
         <f t="shared" si="10"/>
@@ -23681,10 +23682,10 @@
         <v>1437</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G680" s="4">
         <f t="shared" si="10"/>
@@ -23703,7 +23704,7 @@
       </c>
       <c r="D681" s="2"/>
       <c r="E681" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F681" s="2" t="s">
         <v>1524</v>
@@ -23727,10 +23728,10 @@
         <v>1438</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F682" s="2" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="G682" s="4">
         <f t="shared" si="10"/>
@@ -23751,10 +23752,10 @@
         <v>1439</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F683" s="2" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G683" s="4">
         <f t="shared" si="10"/>
@@ -23775,10 +23776,10 @@
         <v>1440</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F684" s="2" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G684" s="4">
         <f t="shared" si="10"/>
@@ -23799,10 +23800,10 @@
         <v>1441</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F685" s="3" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G685" s="4">
         <f t="shared" si="10"/>
@@ -23823,10 +23824,10 @@
         <v>1442</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="G686" s="4">
         <f t="shared" si="10"/>
@@ -23847,10 +23848,10 @@
         <v>1443</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F687" s="2" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="G687" s="4">
         <f t="shared" si="10"/>
@@ -23871,10 +23872,10 @@
         <v>1444</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F688" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G688" s="4">
         <f t="shared" si="10"/>
@@ -23895,10 +23896,10 @@
         <v>1445</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F689" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="G689" s="4">
         <f t="shared" si="10"/>
@@ -23919,10 +23920,10 @@
         <v>1446</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="G690" s="4">
         <f t="shared" si="10"/>
@@ -23943,10 +23944,10 @@
         <v>1447</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F691" s="2" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="G691" s="4">
         <f t="shared" si="10"/>
@@ -23967,10 +23968,10 @@
         <v>1448</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="G692" s="4">
         <f t="shared" si="10"/>
@@ -23991,10 +23992,10 @@
         <v>1449</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F693" s="2" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="G693" s="4">
         <f t="shared" si="10"/>
@@ -24015,10 +24016,10 @@
         <v>1450</v>
       </c>
       <c r="E694" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F694" s="2" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="G694" s="4">
         <f t="shared" si="10"/>
@@ -24039,10 +24040,10 @@
         <v>1451</v>
       </c>
       <c r="E695" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F695" s="3" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G695" s="4">
         <f t="shared" si="10"/>
@@ -24063,10 +24064,10 @@
         <v>1452</v>
       </c>
       <c r="E696" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F696" s="2" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="G696" s="4">
         <f t="shared" si="10"/>
@@ -24087,10 +24088,10 @@
         <v>1453</v>
       </c>
       <c r="E697" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F697" s="2" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="G697" s="4">
         <f t="shared" si="10"/>
@@ -24111,10 +24112,10 @@
         <v>1454</v>
       </c>
       <c r="E698" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F698" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="G698" s="4">
         <f t="shared" si="10"/>
@@ -24135,10 +24136,10 @@
         <v>1455</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F699" s="3" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G699" s="4">
         <f t="shared" si="10"/>
@@ -24159,10 +24160,10 @@
         <v>1456</v>
       </c>
       <c r="E700" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F700" s="2" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="G700" s="4">
         <f t="shared" si="10"/>
@@ -24183,10 +24184,10 @@
         <v>1457</v>
       </c>
       <c r="E701" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F701" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G701" s="4">
         <f t="shared" si="10"/>
@@ -24207,10 +24208,10 @@
         <v>1458</v>
       </c>
       <c r="E702" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F702" s="2" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="G702" s="4">
         <f t="shared" si="10"/>
@@ -24231,10 +24232,10 @@
         <v>789</v>
       </c>
       <c r="E703" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F703" s="2" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="G703" s="4">
         <f t="shared" si="10"/>
@@ -24255,10 +24256,10 @@
         <v>1459</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F704" s="2" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="G704" s="4">
         <f t="shared" si="10"/>
@@ -24279,10 +24280,10 @@
         <v>790</v>
       </c>
       <c r="E705" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F705" s="2" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="G705" s="4">
         <f t="shared" si="10"/>
@@ -24303,10 +24304,10 @@
         <v>1460</v>
       </c>
       <c r="E706" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F706" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="G706" s="4">
         <f t="shared" ref="G706:G767" si="11">LEN(F706)</f>
@@ -24327,10 +24328,10 @@
         <v>1461</v>
       </c>
       <c r="E707" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F707" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G707" s="4">
         <f t="shared" si="11"/>
@@ -24351,10 +24352,10 @@
         <v>1462</v>
       </c>
       <c r="E708" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F708" s="3" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="G708" s="4">
         <f t="shared" si="11"/>
@@ -24375,10 +24376,10 @@
         <v>1463</v>
       </c>
       <c r="E709" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F709" s="2" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G709" s="4">
         <f t="shared" si="11"/>
@@ -24399,10 +24400,10 @@
         <v>1464</v>
       </c>
       <c r="E710" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F710" s="2" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="G710" s="4">
         <f t="shared" si="11"/>
@@ -24423,10 +24424,10 @@
         <v>1465</v>
       </c>
       <c r="E711" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F711" s="2" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="G711" s="4">
         <f t="shared" si="11"/>
@@ -24447,10 +24448,10 @@
         <v>1466</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F712" s="2" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="G712" s="4">
         <f t="shared" si="11"/>
@@ -24471,10 +24472,10 @@
         <v>1467</v>
       </c>
       <c r="E713" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F713" s="3" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G713" s="4">
         <f t="shared" si="11"/>
@@ -24495,10 +24496,10 @@
         <v>1468</v>
       </c>
       <c r="E714" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F714" s="2" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="G714" s="4">
         <f t="shared" si="11"/>
@@ -24519,7 +24520,7 @@
         <v>1469</v>
       </c>
       <c r="E715" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F715" s="2" t="s">
         <v>163</v>
@@ -24543,10 +24544,10 @@
         <v>1470</v>
       </c>
       <c r="E716" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F716" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G716" s="4">
         <f t="shared" si="11"/>
@@ -24567,10 +24568,10 @@
         <v>1471</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="G717" s="4">
         <f t="shared" si="11"/>
@@ -24591,10 +24592,10 @@
         <v>1472</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F718" s="2" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="G718" s="4">
         <f t="shared" si="11"/>
@@ -24615,10 +24616,10 @@
         <v>1473</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F719" s="2" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="G719" s="4">
         <f t="shared" si="11"/>
@@ -24639,10 +24640,10 @@
         <v>1474</v>
       </c>
       <c r="E720" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F720" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G720" s="4">
         <f t="shared" si="11"/>
@@ -24663,10 +24664,10 @@
         <v>1475</v>
       </c>
       <c r="E721" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F721" s="2" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="G721" s="4">
         <f t="shared" si="11"/>
@@ -24687,10 +24688,10 @@
         <v>1476</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G722" s="4">
         <f t="shared" si="11"/>
@@ -24711,10 +24712,10 @@
         <v>1477</v>
       </c>
       <c r="E723" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F723" s="2" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="G723" s="4">
         <f t="shared" si="11"/>
@@ -24735,10 +24736,10 @@
         <v>1478</v>
       </c>
       <c r="E724" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F724" s="2" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="G724" s="4">
         <f t="shared" si="11"/>
@@ -24759,10 +24760,10 @@
         <v>1479</v>
       </c>
       <c r="E725" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F725" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="G725" s="4">
         <f t="shared" si="11"/>
@@ -24783,10 +24784,10 @@
         <v>1480</v>
       </c>
       <c r="E726" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F726" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G726" s="4">
         <f t="shared" si="11"/>
@@ -24807,10 +24808,10 @@
         <v>1481</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F727" s="2" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="G727" s="4">
         <f t="shared" si="11"/>
@@ -24831,10 +24832,10 @@
         <v>1482</v>
       </c>
       <c r="E728" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F728" s="2" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G728" s="4">
         <f t="shared" si="11"/>
@@ -24855,10 +24856,10 @@
         <v>1483</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F729" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G729" s="4">
         <f t="shared" si="11"/>
@@ -24879,10 +24880,10 @@
         <v>1484</v>
       </c>
       <c r="E730" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F730" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G730" s="4">
         <f t="shared" si="11"/>
@@ -24903,10 +24904,10 @@
         <v>1485</v>
       </c>
       <c r="E731" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F731" s="2" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="G731" s="4">
         <f t="shared" si="11"/>
@@ -24927,10 +24928,10 @@
         <v>1486</v>
       </c>
       <c r="E732" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F732" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="G732" s="4">
         <f t="shared" si="11"/>
@@ -24951,10 +24952,10 @@
         <v>1487</v>
       </c>
       <c r="E733" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F733" s="2" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="G733" s="4">
         <f t="shared" si="11"/>
@@ -24975,10 +24976,10 @@
         <v>1488</v>
       </c>
       <c r="E734" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F734" s="2" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="G734" s="4">
         <f t="shared" si="11"/>
@@ -24999,10 +25000,10 @@
         <v>1489</v>
       </c>
       <c r="E735" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F735" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G735" s="4">
         <f t="shared" si="11"/>
@@ -25023,10 +25024,10 @@
         <v>1490</v>
       </c>
       <c r="E736" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F736" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="G736" s="4">
         <f t="shared" si="11"/>
@@ -25047,10 +25048,10 @@
         <v>1491</v>
       </c>
       <c r="E737" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F737" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="G737" s="4">
         <f t="shared" si="11"/>
@@ -25071,10 +25072,10 @@
         <v>1492</v>
       </c>
       <c r="E738" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F738" s="2" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="G738" s="4">
         <f t="shared" si="11"/>
@@ -25095,10 +25096,10 @@
         <v>1493</v>
       </c>
       <c r="E739" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F739" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G739" s="4">
         <f t="shared" si="11"/>
@@ -25119,10 +25120,10 @@
         <v>1494</v>
       </c>
       <c r="E740" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F740" s="2" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="G740" s="4">
         <f t="shared" si="11"/>
@@ -25141,7 +25142,7 @@
       </c>
       <c r="D741" s="2"/>
       <c r="E741" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F741" s="2" t="s">
         <v>1530</v>
@@ -25165,10 +25166,10 @@
         <v>1495</v>
       </c>
       <c r="E742" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="G742" s="4">
         <f t="shared" si="11"/>
@@ -25189,10 +25190,10 @@
         <v>1496</v>
       </c>
       <c r="E743" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="G743" s="4">
         <f t="shared" si="11"/>
@@ -25213,10 +25214,10 @@
         <v>1497</v>
       </c>
       <c r="E744" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F744" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G744" s="4">
         <f t="shared" si="11"/>
@@ -25237,10 +25238,10 @@
         <v>1498</v>
       </c>
       <c r="E745" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F745" s="2" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="G745" s="4">
         <f t="shared" si="11"/>
@@ -25261,10 +25262,10 @@
         <v>1499</v>
       </c>
       <c r="E746" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F746" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G746" s="4">
         <f t="shared" si="11"/>
@@ -25285,10 +25286,10 @@
         <v>1500</v>
       </c>
       <c r="E747" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F747" s="2" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="G747" s="4">
         <f t="shared" si="11"/>
@@ -25309,10 +25310,10 @@
         <v>1501</v>
       </c>
       <c r="E748" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F748" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="G748" s="4">
         <f t="shared" si="11"/>
@@ -25333,10 +25334,10 @@
         <v>1502</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F749" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G749" s="4">
         <f t="shared" si="11"/>
@@ -25357,10 +25358,10 @@
         <v>1503</v>
       </c>
       <c r="E750" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F750" s="2" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="G750" s="4">
         <f t="shared" si="11"/>
@@ -25381,10 +25382,10 @@
         <v>1504</v>
       </c>
       <c r="E751" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F751" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G751" s="4">
         <f t="shared" si="11"/>
@@ -25405,10 +25406,10 @@
         <v>1505</v>
       </c>
       <c r="E752" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F752" s="2" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="G752" s="4">
         <f t="shared" si="11"/>
@@ -25429,10 +25430,10 @@
         <v>1506</v>
       </c>
       <c r="E753" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F753" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G753" s="4">
         <f t="shared" si="11"/>
@@ -25453,10 +25454,10 @@
         <v>1507</v>
       </c>
       <c r="E754" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F754" s="2" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="G754" s="4">
         <f t="shared" si="11"/>
@@ -25477,10 +25478,10 @@
         <v>1508</v>
       </c>
       <c r="E755" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="G755" s="4">
         <f t="shared" si="11"/>
@@ -25501,10 +25502,10 @@
         <v>1509</v>
       </c>
       <c r="E756" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F756" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G756" s="4">
         <f t="shared" si="11"/>
@@ -25525,10 +25526,10 @@
         <v>1510</v>
       </c>
       <c r="E757" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F757" s="2" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="G757" s="4">
         <f t="shared" si="11"/>
@@ -25549,10 +25550,10 @@
         <v>1511</v>
       </c>
       <c r="E758" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F758" s="2" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="G758" s="4">
         <f t="shared" si="11"/>
@@ -25573,10 +25574,10 @@
         <v>1512</v>
       </c>
       <c r="E759" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F759" s="2" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="G759" s="4">
         <f t="shared" si="11"/>
@@ -25597,10 +25598,10 @@
         <v>1513</v>
       </c>
       <c r="E760" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F760" s="2" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="G760" s="4">
         <f t="shared" si="11"/>
@@ -25621,10 +25622,10 @@
         <v>791</v>
       </c>
       <c r="E761" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F761" s="2" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="G761" s="4">
         <f t="shared" si="11"/>
@@ -25645,10 +25646,10 @@
         <v>1514</v>
       </c>
       <c r="E762" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F762" s="2" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="G762" s="4">
         <f t="shared" si="11"/>
@@ -25669,10 +25670,10 @@
         <v>1515</v>
       </c>
       <c r="E763" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F763" s="2" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="G763" s="4">
         <f t="shared" si="11"/>
@@ -25693,10 +25694,10 @@
         <v>1516</v>
       </c>
       <c r="E764" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F764" s="2" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="G764" s="4">
         <f t="shared" si="11"/>
@@ -25717,10 +25718,10 @@
         <v>1517</v>
       </c>
       <c r="E765" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F765" s="2" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="G765" s="4">
         <f t="shared" si="11"/>
@@ -25741,10 +25742,10 @@
         <v>1518</v>
       </c>
       <c r="E766" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F766" s="2" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="G766" s="4">
         <f t="shared" si="11"/>
@@ -25765,10 +25766,10 @@
         <v>1519</v>
       </c>
       <c r="E767" s="2" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="F767" s="2" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="G767" s="4">
         <f t="shared" si="11"/>

--- a/Assets/simpleKanjiMaster.xlsx
+++ b/Assets/simpleKanjiMaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\KanjiTrain2\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B3B4F8-66E9-44FC-9AF7-A92E5D04A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5B504C-E3AA-47D9-AD6F-5A9F6EDC7CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="135" windowWidth="27180" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4761,9 +4761,6 @@
     <t>委,秒,和,季,種,積,移,税,程,穀,私,秘,列,刷,副,別,刊,制,則,判,割,劇,刻,創,班</t>
   </si>
   <si>
-    <t>区,族,短,候,疑,区</t>
-  </si>
-  <si>
     <t>医,族,候,疑,登,豊</t>
   </si>
   <si>
@@ -5452,13 +5449,6 @@
   </si>
   <si>
     <t>化,係,仕,使,住,他,代,倍,旅,位,億,健,候,借,信,側,仲,低,停,伝,働,付,便,仮,価,件,個,在,似,像,任,備,俵,仏,保,供,衆,傷,仁,存,値,俳,優</t>
-  </si>
-  <si>
-    <t>験,訳,択</t>
-    <rPh sb="4" eb="5">
-      <t>タク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>問,関,閣,閉,研</t>
@@ -6974,6 +6964,20 @@
   </si>
   <si>
     <t>寒,客,宮,実,守,宿,定,害,完,官,察,貯,寄,富,容,宇,穴,憲,宗,宣,宅,宙,宝,密,委,始,好,要,桜,妻,婦,姿</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区,族,短,候,疑,区</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>験,訳,択,沢</t>
+    <rPh sb="4" eb="5">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サワ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7390,8 +7394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G767"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A734" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F761" sqref="F761"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7421,7 +7425,7 @@
         <v>772</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -7465,7 +7469,7 @@
         <v>767</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="0"/>
@@ -7486,7 +7490,7 @@
         <v>794</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>1554</v>
@@ -7510,10 +7514,10 @@
         <v>795</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1574</v>
+        <v>2287</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
@@ -7534,7 +7538,7 @@
         <v>796</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1565</v>
@@ -7558,7 +7562,7 @@
         <v>797</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>1552</v>
@@ -7582,10 +7586,10 @@
         <v>798</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
@@ -7606,10 +7610,10 @@
         <v>799</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
@@ -7630,10 +7634,10 @@
         <v>800</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
@@ -7654,10 +7658,10 @@
         <v>801</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
@@ -7678,10 +7682,10 @@
         <v>802</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
@@ -7702,10 +7706,10 @@
         <v>803</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
@@ -7726,14 +7730,14 @@
         <v>804</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1805</v>
+        <v>2288</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -7750,10 +7754,10 @@
         <v>805</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
@@ -7774,10 +7778,10 @@
         <v>806</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
@@ -7798,10 +7802,10 @@
         <v>807</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
@@ -7822,10 +7826,10 @@
         <v>808</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
@@ -7846,10 +7850,10 @@
         <v>809</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
@@ -7870,10 +7874,10 @@
         <v>810</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
@@ -7894,10 +7898,10 @@
         <v>811</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
@@ -7918,10 +7922,10 @@
         <v>812</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
@@ -7942,10 +7946,10 @@
         <v>813</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="0"/>
@@ -7966,7 +7970,7 @@
         <v>814</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1542</v>
@@ -7990,10 +7994,10 @@
         <v>815</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
@@ -8014,10 +8018,10 @@
         <v>816</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
@@ -8038,10 +8042,10 @@
         <v>817</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
@@ -8062,10 +8066,10 @@
         <v>818</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="0"/>
@@ -8086,10 +8090,10 @@
         <v>819</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="0"/>
@@ -8110,10 +8114,10 @@
         <v>820</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="0"/>
@@ -8134,7 +8138,7 @@
         <v>821</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1544</v>
@@ -8158,10 +8162,10 @@
         <v>822</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="0"/>
@@ -8182,10 +8186,10 @@
         <v>823</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="0"/>
@@ -8206,10 +8210,10 @@
         <v>824</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="0"/>
@@ -8230,7 +8234,7 @@
         <v>825</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1545</v>
@@ -8254,10 +8258,10 @@
         <v>826</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="0"/>
@@ -8278,10 +8282,10 @@
         <v>827</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="0"/>
@@ -8302,10 +8306,10 @@
         <v>828</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="0"/>
@@ -8326,10 +8330,10 @@
         <v>829</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="0"/>
@@ -8350,7 +8354,7 @@
         <v>830</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>1555</v>
@@ -8374,10 +8378,10 @@
         <v>831</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="0"/>
@@ -8398,10 +8402,10 @@
         <v>832</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="0"/>
@@ -8422,10 +8426,10 @@
         <v>833</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="0"/>
@@ -8446,10 +8450,10 @@
         <v>834</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="0"/>
@@ -8470,10 +8474,10 @@
         <v>835</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="0"/>
@@ -8494,10 +8498,10 @@
         <v>836</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="0"/>
@@ -8518,10 +8522,10 @@
         <v>837</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="0"/>
@@ -8542,10 +8546,10 @@
         <v>838</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="G48" s="4">
         <f t="shared" si="0"/>
@@ -8566,10 +8570,10 @@
         <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G49" s="4">
         <f t="shared" si="0"/>
@@ -8590,10 +8594,10 @@
         <v>839</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G50" s="4">
         <f t="shared" si="0"/>
@@ -8614,10 +8618,10 @@
         <v>840</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="G51" s="4">
         <f t="shared" si="0"/>
@@ -8638,10 +8642,10 @@
         <v>841</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="G52" s="4">
         <f t="shared" si="0"/>
@@ -8662,10 +8666,10 @@
         <v>842</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="G53" s="4">
         <f t="shared" si="0"/>
@@ -8686,10 +8690,10 @@
         <v>843</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G54" s="4">
         <f t="shared" si="0"/>
@@ -8710,10 +8714,10 @@
         <v>844</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" si="0"/>
@@ -8734,10 +8738,10 @@
         <v>845</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" si="0"/>
@@ -8758,10 +8762,10 @@
         <v>846</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" si="0"/>
@@ -8782,10 +8786,10 @@
         <v>847</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" si="0"/>
@@ -8806,10 +8810,10 @@
         <v>848</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" si="0"/>
@@ -8830,10 +8834,10 @@
         <v>849</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" si="0"/>
@@ -8852,7 +8856,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>1531</v>
@@ -8876,10 +8880,10 @@
         <v>850</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="G62" s="4">
         <f t="shared" si="0"/>
@@ -8900,10 +8904,10 @@
         <v>851</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="G63" s="4">
         <f t="shared" si="0"/>
@@ -8924,10 +8928,10 @@
         <v>852</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G64" s="4">
         <f t="shared" si="0"/>
@@ -8948,7 +8952,7 @@
         <v>853</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>1538</v>
@@ -8972,10 +8976,10 @@
         <v>854</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="G66" s="4">
         <f t="shared" ref="G66:G129" si="1">LEN(F66)</f>
@@ -8996,10 +9000,10 @@
         <v>855</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="G67" s="4">
         <f t="shared" si="1"/>
@@ -9020,10 +9024,10 @@
         <v>856</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="G68" s="4">
         <f t="shared" si="1"/>
@@ -9044,10 +9048,10 @@
         <v>857</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="G69" s="4">
         <f t="shared" si="1"/>
@@ -9068,10 +9072,10 @@
         <v>858</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G70" s="4">
         <f t="shared" si="1"/>
@@ -9092,10 +9096,10 @@
         <v>859</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="G71" s="4">
         <f t="shared" si="1"/>
@@ -9116,10 +9120,10 @@
         <v>860</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="G72" s="4">
         <f t="shared" si="1"/>
@@ -9140,7 +9144,7 @@
         <v>861</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>1543</v>
@@ -9164,10 +9168,10 @@
         <v>862</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="G74" s="4">
         <f t="shared" si="1"/>
@@ -9188,10 +9192,10 @@
         <v>863</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="G75" s="4">
         <f t="shared" si="1"/>
@@ -9212,10 +9216,10 @@
         <v>864</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="G76" s="4">
         <f t="shared" si="1"/>
@@ -9236,7 +9240,7 @@
         <v>865</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>1547</v>
@@ -9260,10 +9264,10 @@
         <v>866</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="G78" s="4">
         <f t="shared" si="1"/>
@@ -9284,10 +9288,10 @@
         <v>867</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="G79" s="4">
         <f t="shared" si="1"/>
@@ -9308,10 +9312,10 @@
         <v>868</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="G80" s="4">
         <f t="shared" si="1"/>
@@ -9332,10 +9336,10 @@
         <v>869</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="G81" s="4">
         <f t="shared" si="1"/>
@@ -9356,10 +9360,10 @@
         <v>870</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="G82" s="4">
         <f t="shared" si="1"/>
@@ -9380,10 +9384,10 @@
         <v>871</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="G83" s="4">
         <f t="shared" si="1"/>
@@ -9404,10 +9408,10 @@
         <v>872</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="G84" s="4">
         <f t="shared" si="1"/>
@@ -9428,10 +9432,10 @@
         <v>873</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="G85" s="4">
         <f t="shared" si="1"/>
@@ -9452,10 +9456,10 @@
         <v>874</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G86" s="4">
         <f t="shared" si="1"/>
@@ -9476,10 +9480,10 @@
         <v>875</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="G87" s="4">
         <f t="shared" si="1"/>
@@ -9500,10 +9504,10 @@
         <v>876</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G88" s="4">
         <f t="shared" si="1"/>
@@ -9524,10 +9528,10 @@
         <v>877</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="G89" s="4">
         <f t="shared" si="1"/>
@@ -9548,7 +9552,7 @@
         <v>878</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>1557</v>
@@ -9572,10 +9576,10 @@
         <v>879</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="G91" s="4">
         <f t="shared" si="1"/>
@@ -9596,7 +9600,7 @@
         <v>880</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>1558</v>
@@ -9620,10 +9624,10 @@
         <v>881</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G93" s="4">
         <f t="shared" si="1"/>
@@ -9644,10 +9648,10 @@
         <v>882</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="G94" s="4">
         <f t="shared" si="1"/>
@@ -9668,7 +9672,7 @@
         <v>883</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>1553</v>
@@ -9692,10 +9696,10 @@
         <v>884</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="G96" s="4">
         <f t="shared" si="1"/>
@@ -9716,10 +9720,10 @@
         <v>885</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="G97" s="4">
         <f t="shared" si="1"/>
@@ -9740,10 +9744,10 @@
         <v>886</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G98" s="4">
         <f t="shared" si="1"/>
@@ -9764,10 +9768,10 @@
         <v>887</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="G99" s="4">
         <f t="shared" si="1"/>
@@ -9786,7 +9790,7 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>1532</v>
@@ -9810,10 +9814,10 @@
         <v>888</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="G101" s="4">
         <f t="shared" si="1"/>
@@ -9834,10 +9838,10 @@
         <v>889</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="G102" s="4">
         <f t="shared" si="1"/>
@@ -9858,10 +9862,10 @@
         <v>774</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="G103" s="4">
         <f t="shared" si="1"/>
@@ -9882,10 +9886,10 @@
         <v>890</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="G104" s="4">
         <f t="shared" si="1"/>
@@ -9906,10 +9910,10 @@
         <v>775</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="G105" s="4">
         <f t="shared" si="1"/>
@@ -9930,10 +9934,10 @@
         <v>891</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="G106" s="4">
         <f t="shared" si="1"/>
@@ -9954,10 +9958,10 @@
         <v>892</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="G107" s="4">
         <f t="shared" si="1"/>
@@ -9978,10 +9982,10 @@
         <v>893</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="G108" s="4">
         <f t="shared" si="1"/>
@@ -10002,10 +10006,10 @@
         <v>894</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="G109" s="4">
         <f t="shared" si="1"/>
@@ -10026,10 +10030,10 @@
         <v>895</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="G110" s="4">
         <f t="shared" si="1"/>
@@ -10050,10 +10054,10 @@
         <v>896</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="G111" s="4">
         <f t="shared" si="1"/>
@@ -10074,10 +10078,10 @@
         <v>897</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="G112" s="4">
         <f t="shared" si="1"/>
@@ -10098,10 +10102,10 @@
         <v>898</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="G113" s="4">
         <f t="shared" si="1"/>
@@ -10122,10 +10126,10 @@
         <v>899</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="G114" s="4">
         <f t="shared" si="1"/>
@@ -10146,10 +10150,10 @@
         <v>900</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="G115" s="4">
         <f t="shared" si="1"/>
@@ -10170,10 +10174,10 @@
         <v>901</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="G116" s="4">
         <f t="shared" si="1"/>
@@ -10194,10 +10198,10 @@
         <v>902</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="G117" s="4">
         <f t="shared" si="1"/>
@@ -10218,10 +10222,10 @@
         <v>903</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="G118" s="4">
         <f t="shared" si="1"/>
@@ -10242,10 +10246,10 @@
         <v>904</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="G119" s="4">
         <f t="shared" si="1"/>
@@ -10266,10 +10270,10 @@
         <v>905</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="G120" s="4">
         <f t="shared" si="1"/>
@@ -10290,10 +10294,10 @@
         <v>906</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="G121" s="4">
         <f t="shared" si="1"/>
@@ -10314,10 +10318,10 @@
         <v>907</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="G122" s="4">
         <f t="shared" si="1"/>
@@ -10338,10 +10342,10 @@
         <v>908</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G123" s="4">
         <f t="shared" si="1"/>
@@ -10362,10 +10366,10 @@
         <v>909</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="G124" s="4">
         <f t="shared" si="1"/>
@@ -10386,10 +10390,10 @@
         <v>910</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="G125" s="4">
         <f t="shared" si="1"/>
@@ -10410,10 +10414,10 @@
         <v>911</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="G126" s="4">
         <f t="shared" si="1"/>
@@ -10434,10 +10438,10 @@
         <v>912</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G127" s="4">
         <f t="shared" si="1"/>
@@ -10458,10 +10462,10 @@
         <v>913</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="G128" s="4">
         <f t="shared" si="1"/>
@@ -10482,10 +10486,10 @@
         <v>914</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="G129" s="4">
         <f t="shared" si="1"/>
@@ -10506,10 +10510,10 @@
         <v>915</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="G130" s="4">
         <f t="shared" ref="G130:G193" si="2">LEN(F130)</f>
@@ -10530,10 +10534,10 @@
         <v>916</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="G131" s="4">
         <f t="shared" si="2"/>
@@ -10554,7 +10558,7 @@
         <v>917</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>1549</v>
@@ -10578,10 +10582,10 @@
         <v>918</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="G133" s="4">
         <f t="shared" si="2"/>
@@ -10602,10 +10606,10 @@
         <v>919</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="G134" s="4">
         <f t="shared" si="2"/>
@@ -10626,10 +10630,10 @@
         <v>920</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="G135" s="4">
         <f t="shared" si="2"/>
@@ -10650,10 +10654,10 @@
         <v>921</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="G136" s="4">
         <f t="shared" si="2"/>
@@ -10674,10 +10678,10 @@
         <v>922</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="G137" s="4">
         <f t="shared" si="2"/>
@@ -10698,10 +10702,10 @@
         <v>923</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="G138" s="4">
         <f t="shared" si="2"/>
@@ -10722,10 +10726,10 @@
         <v>924</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="G139" s="4">
         <f t="shared" si="2"/>
@@ -10746,10 +10750,10 @@
         <v>776</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="G140" s="4">
         <f t="shared" si="2"/>
@@ -10770,10 +10774,10 @@
         <v>925</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="G141" s="4">
         <f t="shared" si="2"/>
@@ -10794,10 +10798,10 @@
         <v>926</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G142" s="4">
         <f t="shared" si="2"/>
@@ -10818,10 +10822,10 @@
         <v>927</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="G143" s="4">
         <f t="shared" si="2"/>
@@ -10842,10 +10846,10 @@
         <v>928</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="G144" s="4">
         <f t="shared" si="2"/>
@@ -10866,10 +10870,10 @@
         <v>929</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="G145" s="4">
         <f t="shared" si="2"/>
@@ -10890,10 +10894,10 @@
         <v>930</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="G146" s="4">
         <f t="shared" si="2"/>
@@ -10914,10 +10918,10 @@
         <v>931</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="G147" s="4">
         <f t="shared" si="2"/>
@@ -10938,10 +10942,10 @@
         <v>932</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="G148" s="4">
         <f t="shared" si="2"/>
@@ -10962,10 +10966,10 @@
         <v>933</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="G149" s="4">
         <f t="shared" si="2"/>
@@ -10986,10 +10990,10 @@
         <v>934</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="G150" s="4">
         <f t="shared" si="2"/>
@@ -11010,10 +11014,10 @@
         <v>935</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="G151" s="4">
         <f t="shared" si="2"/>
@@ -11034,10 +11038,10 @@
         <v>936</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="G152" s="4">
         <f t="shared" si="2"/>
@@ -11058,10 +11062,10 @@
         <v>937</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="G153" s="4">
         <f t="shared" si="2"/>
@@ -11082,10 +11086,10 @@
         <v>938</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="G154" s="4">
         <f t="shared" si="2"/>
@@ -11106,10 +11110,10 @@
         <v>939</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="G155" s="4">
         <f t="shared" si="2"/>
@@ -11130,10 +11134,10 @@
         <v>940</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="G156" s="4">
         <f t="shared" si="2"/>
@@ -11152,10 +11156,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="G157" s="4">
         <f t="shared" si="2"/>
@@ -11176,10 +11180,10 @@
         <v>941</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="G158" s="4">
         <f t="shared" si="2"/>
@@ -11200,10 +11204,10 @@
         <v>942</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="G159" s="4">
         <f t="shared" si="2"/>
@@ -11224,10 +11228,10 @@
         <v>943</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="G160" s="4">
         <f t="shared" si="2"/>
@@ -11248,10 +11252,10 @@
         <v>944</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="G161" s="4">
         <f t="shared" si="2"/>
@@ -11272,10 +11276,10 @@
         <v>945</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="G162" s="4">
         <f t="shared" si="2"/>
@@ -11296,10 +11300,10 @@
         <v>946</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="G163" s="4">
         <f t="shared" si="2"/>
@@ -11320,7 +11324,7 @@
         <v>947</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>1572</v>
@@ -11344,7 +11348,7 @@
         <v>948</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>713</v>
@@ -11368,10 +11372,10 @@
         <v>949</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="G166" s="4">
         <f t="shared" si="2"/>
@@ -11392,10 +11396,10 @@
         <v>950</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="G167" s="4">
         <f t="shared" si="2"/>
@@ -11416,10 +11420,10 @@
         <v>951</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="G168" s="4">
         <f t="shared" si="2"/>
@@ -11440,10 +11444,10 @@
         <v>952</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="G169" s="4">
         <f t="shared" si="2"/>
@@ -11464,10 +11468,10 @@
         <v>953</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="G170" s="4">
         <f t="shared" si="2"/>
@@ -11488,10 +11492,10 @@
         <v>954</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="G171" s="4">
         <f t="shared" si="2"/>
@@ -11512,10 +11516,10 @@
         <v>955</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="G172" s="4">
         <f t="shared" si="2"/>
@@ -11536,10 +11540,10 @@
         <v>956</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="G173" s="4">
         <f t="shared" si="2"/>
@@ -11560,10 +11564,10 @@
         <v>957</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="G174" s="4">
         <f t="shared" si="2"/>
@@ -11584,10 +11588,10 @@
         <v>958</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="G175" s="4">
         <f t="shared" si="2"/>
@@ -11608,10 +11612,10 @@
         <v>959</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="G176" s="4">
         <f t="shared" si="2"/>
@@ -11632,10 +11636,10 @@
         <v>960</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="G177" s="4">
         <f t="shared" si="2"/>
@@ -11654,7 +11658,7 @@
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>1523</v>
@@ -11678,10 +11682,10 @@
         <v>961</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="G179" s="4">
         <f t="shared" si="2"/>
@@ -11702,10 +11706,10 @@
         <v>962</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="G180" s="4">
         <f t="shared" si="2"/>
@@ -11726,10 +11730,10 @@
         <v>963</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="G181" s="4">
         <f t="shared" si="2"/>
@@ -11750,10 +11754,10 @@
         <v>964</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="G182" s="4">
         <f t="shared" si="2"/>
@@ -11774,10 +11778,10 @@
         <v>965</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G183" s="4">
         <f t="shared" si="2"/>
@@ -11798,10 +11802,10 @@
         <v>777</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="G184" s="4">
         <f t="shared" si="2"/>
@@ -11822,10 +11826,10 @@
         <v>966</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="G185" s="4">
         <f t="shared" si="2"/>
@@ -11846,10 +11850,10 @@
         <v>967</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="G186" s="4">
         <f t="shared" si="2"/>
@@ -11868,7 +11872,7 @@
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>1520</v>
@@ -11892,10 +11896,10 @@
         <v>968</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="G188" s="4">
         <f t="shared" si="2"/>
@@ -11916,10 +11920,10 @@
         <v>969</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="G189" s="4">
         <f t="shared" si="2"/>
@@ -11940,10 +11944,10 @@
         <v>970</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="G190" s="4">
         <f t="shared" si="2"/>
@@ -11964,10 +11968,10 @@
         <v>971</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G191" s="4">
         <f t="shared" si="2"/>
@@ -11988,10 +11992,10 @@
         <v>972</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="G192" s="4">
         <f t="shared" si="2"/>
@@ -12012,10 +12016,10 @@
         <v>973</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G193" s="4">
         <f t="shared" si="2"/>
@@ -12036,10 +12040,10 @@
         <v>974</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="G194" s="4">
         <f t="shared" ref="G194:G257" si="3">LEN(F194)</f>
@@ -12060,10 +12064,10 @@
         <v>975</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="G195" s="4">
         <f t="shared" si="3"/>
@@ -12084,10 +12088,10 @@
         <v>976</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="G196" s="4">
         <f t="shared" si="3"/>
@@ -12108,10 +12112,10 @@
         <v>977</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="G197" s="4">
         <f t="shared" si="3"/>
@@ -12132,10 +12136,10 @@
         <v>978</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="G198" s="4">
         <f t="shared" si="3"/>
@@ -12156,10 +12160,10 @@
         <v>979</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G199" s="4">
         <f t="shared" si="3"/>
@@ -12180,10 +12184,10 @@
         <v>980</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="G200" s="4">
         <f t="shared" si="3"/>
@@ -12204,7 +12208,7 @@
         <v>981</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>1567</v>
@@ -12228,10 +12232,10 @@
         <v>982</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="G202" s="4">
         <f t="shared" si="3"/>
@@ -12252,7 +12256,7 @@
         <v>983</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>1560</v>
@@ -12276,10 +12280,10 @@
         <v>984</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="G204" s="4">
         <f t="shared" si="3"/>
@@ -12300,10 +12304,10 @@
         <v>778</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="G205" s="4">
         <f t="shared" si="3"/>
@@ -12324,10 +12328,10 @@
         <v>985</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G206" s="4">
         <f t="shared" si="3"/>
@@ -12348,7 +12352,7 @@
         <v>986</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>1561</v>
@@ -12372,10 +12376,10 @@
         <v>987</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="G208" s="4">
         <f t="shared" si="3"/>
@@ -12396,10 +12400,10 @@
         <v>988</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="G209" s="4">
         <f t="shared" si="3"/>
@@ -12420,10 +12424,10 @@
         <v>989</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="G210" s="4">
         <f t="shared" si="3"/>
@@ -12444,10 +12448,10 @@
         <v>990</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G211" s="4">
         <f t="shared" si="3"/>
@@ -12468,10 +12472,10 @@
         <v>991</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="G212" s="4">
         <f t="shared" si="3"/>
@@ -12492,10 +12496,10 @@
         <v>992</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G213" s="4">
         <f t="shared" si="3"/>
@@ -12516,10 +12520,10 @@
         <v>993</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="G214" s="4">
         <f t="shared" si="3"/>
@@ -12540,10 +12544,10 @@
         <v>994</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="G215" s="4">
         <f t="shared" si="3"/>
@@ -12564,10 +12568,10 @@
         <v>995</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="G216" s="4">
         <f t="shared" si="3"/>
@@ -12588,10 +12592,10 @@
         <v>996</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G217" s="4">
         <f t="shared" si="3"/>
@@ -12612,10 +12616,10 @@
         <v>997</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="G218" s="4">
         <f t="shared" si="3"/>
@@ -12636,10 +12640,10 @@
         <v>998</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="G219" s="4">
         <f t="shared" si="3"/>
@@ -12660,10 +12664,10 @@
         <v>999</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="G220" s="4">
         <f t="shared" si="3"/>
@@ -12684,7 +12688,7 @@
         <v>1000</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>1539</v>
@@ -12708,10 +12712,10 @@
         <v>1001</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="G222" s="4">
         <f t="shared" si="3"/>
@@ -12732,7 +12736,7 @@
         <v>1002</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>1533</v>
@@ -12756,10 +12760,10 @@
         <v>1003</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="G224" s="4">
         <f t="shared" si="3"/>
@@ -12780,10 +12784,10 @@
         <v>1004</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="G225" s="4">
         <f t="shared" si="3"/>
@@ -12804,7 +12808,7 @@
         <v>1000</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>1540</v>
@@ -12828,10 +12832,10 @@
         <v>1005</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G227" s="4">
         <f t="shared" si="3"/>
@@ -12852,10 +12856,10 @@
         <v>1006</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="G228" s="4">
         <f t="shared" si="3"/>
@@ -12876,10 +12880,10 @@
         <v>1007</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="G229" s="4">
         <f t="shared" si="3"/>
@@ -12900,10 +12904,10 @@
         <v>1008</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="G230" s="4">
         <f t="shared" si="3"/>
@@ -12924,10 +12928,10 @@
         <v>1009</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="G231" s="4">
         <f t="shared" si="3"/>
@@ -12948,7 +12952,7 @@
         <v>1010</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>1568</v>
@@ -12972,10 +12976,10 @@
         <v>1011</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="G233" s="4">
         <f t="shared" si="3"/>
@@ -12996,10 +13000,10 @@
         <v>1012</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="G234" s="4">
         <f t="shared" si="3"/>
@@ -13020,10 +13024,10 @@
         <v>1013</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="G235" s="4">
         <f t="shared" si="3"/>
@@ -13044,10 +13048,10 @@
         <v>1014</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="G236" s="4">
         <f t="shared" si="3"/>
@@ -13068,10 +13072,10 @@
         <v>1015</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="G237" s="4">
         <f t="shared" si="3"/>
@@ -13092,10 +13096,10 @@
         <v>1016</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="G238" s="4">
         <f t="shared" si="3"/>
@@ -13116,10 +13120,10 @@
         <v>1017</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="G239" s="4">
         <f t="shared" si="3"/>
@@ -13140,10 +13144,10 @@
         <v>1018</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G240" s="4">
         <f t="shared" si="3"/>
@@ -13164,10 +13168,10 @@
         <v>1019</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="G241" s="4">
         <f t="shared" si="3"/>
@@ -13188,10 +13192,10 @@
         <v>1020</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="G242" s="4">
         <f t="shared" si="3"/>
@@ -13212,10 +13216,10 @@
         <v>1021</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="G243" s="4">
         <f t="shared" si="3"/>
@@ -13236,10 +13240,10 @@
         <v>1022</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G244" s="4">
         <f t="shared" si="3"/>
@@ -13260,10 +13264,10 @@
         <v>779</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="G245" s="4">
         <f t="shared" si="3"/>
@@ -13284,10 +13288,10 @@
         <v>1023</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="G246" s="4">
         <f t="shared" si="3"/>
@@ -13308,10 +13312,10 @@
         <v>1024</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="G247" s="4">
         <f t="shared" si="3"/>
@@ -13332,10 +13336,10 @@
         <v>1025</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="G248" s="4">
         <f t="shared" si="3"/>
@@ -13356,10 +13360,10 @@
         <v>1026</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G249" s="4">
         <f t="shared" si="3"/>
@@ -13380,10 +13384,10 @@
         <v>1027</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="G250" s="4">
         <f t="shared" si="3"/>
@@ -13404,10 +13408,10 @@
         <v>1028</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="G251" s="4">
         <f t="shared" si="3"/>
@@ -13428,10 +13432,10 @@
         <v>1029</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="G252" s="4">
         <f t="shared" si="3"/>
@@ -13452,10 +13456,10 @@
         <v>1030</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="G253" s="4">
         <f t="shared" si="3"/>
@@ -13476,10 +13480,10 @@
         <v>1031</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="G254" s="4">
         <f t="shared" si="3"/>
@@ -13500,7 +13504,7 @@
         <v>1032</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>1556</v>
@@ -13524,10 +13528,10 @@
         <v>1033</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="G256" s="4">
         <f t="shared" si="3"/>
@@ -13546,7 +13550,7 @@
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>1527</v>
@@ -13570,10 +13574,10 @@
         <v>1034</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="G258" s="4">
         <f t="shared" ref="G258:G321" si="4">LEN(F258)</f>
@@ -13594,10 +13598,10 @@
         <v>1035</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="G259" s="4">
         <f t="shared" si="4"/>
@@ -13618,10 +13622,10 @@
         <v>1036</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="G260" s="4">
         <f t="shared" si="4"/>
@@ -13642,10 +13646,10 @@
         <v>1037</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="G261" s="4">
         <f t="shared" si="4"/>
@@ -13666,7 +13670,7 @@
         <v>1038</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>1563</v>
@@ -13690,10 +13694,10 @@
         <v>1039</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="G263" s="4">
         <f t="shared" si="4"/>
@@ -13714,7 +13718,7 @@
         <v>1040</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>1537</v>
@@ -13738,10 +13742,10 @@
         <v>1041</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G265" s="4">
         <f t="shared" si="4"/>
@@ -13762,7 +13766,7 @@
         <v>1042</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="4">
@@ -13784,10 +13788,10 @@
         <v>1043</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="G267" s="4">
         <f t="shared" si="4"/>
@@ -13808,10 +13812,10 @@
         <v>1044</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="G268" s="4">
         <f t="shared" si="4"/>
@@ -13832,10 +13836,10 @@
         <v>1045</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="G269" s="4">
         <f t="shared" si="4"/>
@@ -13856,10 +13860,10 @@
         <v>1046</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="G270" s="4">
         <f t="shared" si="4"/>
@@ -13880,10 +13884,10 @@
         <v>1047</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="G271" s="4">
         <f t="shared" si="4"/>
@@ -13904,10 +13908,10 @@
         <v>1048</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="G272" s="4">
         <f t="shared" si="4"/>
@@ -13928,10 +13932,10 @@
         <v>1049</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G273" s="4">
         <f t="shared" si="4"/>
@@ -13952,10 +13956,10 @@
         <v>1050</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="G274" s="4">
         <f t="shared" si="4"/>
@@ -13976,10 +13980,10 @@
         <v>1051</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="G275" s="4">
         <f t="shared" si="4"/>
@@ -14000,10 +14004,10 @@
         <v>1052</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="G276" s="4">
         <f t="shared" si="4"/>
@@ -14024,7 +14028,7 @@
         <v>1053</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>1546</v>
@@ -14048,10 +14052,10 @@
         <v>1054</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="G278" s="4">
         <f t="shared" si="4"/>
@@ -14072,10 +14076,10 @@
         <v>1055</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="G279" s="4">
         <f t="shared" si="4"/>
@@ -14096,10 +14100,10 @@
         <v>1056</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="G280" s="4">
         <f t="shared" si="4"/>
@@ -14120,10 +14124,10 @@
         <v>1057</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="G281" s="4">
         <f t="shared" si="4"/>
@@ -14142,7 +14146,7 @@
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>1525</v>
@@ -14164,7 +14168,7 @@
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>1529</v>
@@ -14188,10 +14192,10 @@
         <v>1058</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G284" s="4">
         <f t="shared" si="4"/>
@@ -14212,10 +14216,10 @@
         <v>1059</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="G285" s="4">
         <f t="shared" si="4"/>
@@ -14236,10 +14240,10 @@
         <v>1060</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="G286" s="4">
         <f t="shared" si="4"/>
@@ -14260,10 +14264,10 @@
         <v>1061</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="G287" s="4">
         <f t="shared" si="4"/>
@@ -14284,10 +14288,10 @@
         <v>1062</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="G288" s="4">
         <f t="shared" si="4"/>
@@ -14308,7 +14312,7 @@
         <v>1063</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>758</v>
@@ -14332,10 +14336,10 @@
         <v>1064</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="G290" s="4">
         <f t="shared" si="4"/>
@@ -14356,10 +14360,10 @@
         <v>1065</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="G291" s="4">
         <f t="shared" si="4"/>
@@ -14380,10 +14384,10 @@
         <v>1066</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="G292" s="4">
         <f t="shared" si="4"/>
@@ -14404,10 +14408,10 @@
         <v>1067</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="G293" s="4">
         <f t="shared" si="4"/>
@@ -14428,10 +14432,10 @@
         <v>1068</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="G294" s="4">
         <f t="shared" si="4"/>
@@ -14452,10 +14456,10 @@
         <v>1069</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="G295" s="4">
         <f t="shared" si="4"/>
@@ -14476,10 +14480,10 @@
         <v>1070</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="G296" s="4">
         <f t="shared" si="4"/>
@@ -14500,10 +14504,10 @@
         <v>1071</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G297" s="4">
         <f t="shared" si="4"/>
@@ -14524,10 +14528,10 @@
         <v>1072</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="G298" s="4">
         <f t="shared" si="4"/>
@@ -14548,10 +14552,10 @@
         <v>1073</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="G299" s="4">
         <f t="shared" si="4"/>
@@ -14572,10 +14576,10 @@
         <v>1074</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="G300" s="4">
         <f t="shared" si="4"/>
@@ -14596,10 +14600,10 @@
         <v>1075</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="G301" s="4">
         <f t="shared" si="4"/>
@@ -14620,10 +14624,10 @@
         <v>1076</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="G302" s="4">
         <f t="shared" si="4"/>
@@ -14644,10 +14648,10 @@
         <v>1077</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="G303" s="4">
         <f t="shared" si="4"/>
@@ -14666,7 +14670,7 @@
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>1522</v>
@@ -14690,10 +14694,10 @@
         <v>1078</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="G305" s="4">
         <f t="shared" si="4"/>
@@ -14714,10 +14718,10 @@
         <v>1079</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="G306" s="4">
         <f t="shared" si="4"/>
@@ -14738,10 +14742,10 @@
         <v>1080</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="G307" s="4">
         <f t="shared" si="4"/>
@@ -14762,10 +14766,10 @@
         <v>1081</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="G308" s="4">
         <f t="shared" si="4"/>
@@ -14786,10 +14790,10 @@
         <v>1082</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="G309" s="4">
         <f t="shared" si="4"/>
@@ -14810,10 +14814,10 @@
         <v>1083</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="G310" s="4">
         <f t="shared" si="4"/>
@@ -14834,7 +14838,7 @@
         <v>1084</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>1569</v>
@@ -14858,10 +14862,10 @@
         <v>1085</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="G312" s="4">
         <f t="shared" si="4"/>
@@ -14882,10 +14886,10 @@
         <v>1086</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="G313" s="4">
         <f t="shared" si="4"/>
@@ -14906,10 +14910,10 @@
         <v>1087</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="G314" s="4">
         <f t="shared" si="4"/>
@@ -14930,10 +14934,10 @@
         <v>1088</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G315" s="4">
         <f t="shared" si="4"/>
@@ -14954,10 +14958,10 @@
         <v>1089</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="G316" s="4">
         <f t="shared" si="4"/>
@@ -14978,10 +14982,10 @@
         <v>1090</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="G317" s="4">
         <f t="shared" si="4"/>
@@ -15002,10 +15006,10 @@
         <v>1091</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G318" s="4">
         <f t="shared" si="4"/>
@@ -15026,10 +15030,10 @@
         <v>1092</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="G319" s="4">
         <f t="shared" si="4"/>
@@ -15050,10 +15054,10 @@
         <v>1093</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G320" s="4">
         <f t="shared" si="4"/>
@@ -15074,10 +15078,10 @@
         <v>1094</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="G321" s="4">
         <f t="shared" si="4"/>
@@ -15098,10 +15102,10 @@
         <v>1095</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="G322" s="4">
         <f t="shared" ref="G322:G385" si="5">LEN(F322)</f>
@@ -15122,10 +15126,10 @@
         <v>1096</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="G323" s="4">
         <f t="shared" si="5"/>
@@ -15146,10 +15150,10 @@
         <v>1097</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="G324" s="4">
         <f t="shared" si="5"/>
@@ -15170,10 +15174,10 @@
         <v>1098</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="G325" s="4">
         <f t="shared" si="5"/>
@@ -15194,10 +15198,10 @@
         <v>1099</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="G326" s="4">
         <f t="shared" si="5"/>
@@ -15218,10 +15222,10 @@
         <v>1100</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="G327" s="4">
         <f t="shared" si="5"/>
@@ -15242,10 +15246,10 @@
         <v>1101</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="G328" s="4">
         <f t="shared" si="5"/>
@@ -15266,10 +15270,10 @@
         <v>1102</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="G329" s="4">
         <f t="shared" si="5"/>
@@ -15290,10 +15294,10 @@
         <v>1103</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="G330" s="4">
         <f t="shared" si="5"/>
@@ -15314,10 +15318,10 @@
         <v>1104</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="G331" s="4">
         <f t="shared" si="5"/>
@@ -15338,10 +15342,10 @@
         <v>1105</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="G332" s="4">
         <f t="shared" si="5"/>
@@ -15362,10 +15366,10 @@
         <v>1106</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="G333" s="4">
         <f t="shared" si="5"/>
@@ -15386,10 +15390,10 @@
         <v>1107</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="G334" s="4">
         <f t="shared" si="5"/>
@@ -15410,10 +15414,10 @@
         <v>1108</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="G335" s="4">
         <f t="shared" si="5"/>
@@ -15434,10 +15438,10 @@
         <v>1109</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="G336" s="4">
         <f t="shared" si="5"/>
@@ -15458,10 +15462,10 @@
         <v>1110</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="G337" s="4">
         <f t="shared" si="5"/>
@@ -15482,10 +15486,10 @@
         <v>1111</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="G338" s="4">
         <f t="shared" si="5"/>
@@ -15506,7 +15510,7 @@
         <v>1112</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F339" s="3" t="s">
         <v>1559</v>
@@ -15530,10 +15534,10 @@
         <v>1113</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="G340" s="4">
         <f t="shared" si="5"/>
@@ -15554,10 +15558,10 @@
         <v>1114</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G341" s="4">
         <f t="shared" si="5"/>
@@ -15578,10 +15582,10 @@
         <v>1115</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="G342" s="4">
         <f t="shared" si="5"/>
@@ -15602,10 +15606,10 @@
         <v>1116</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="G343" s="4">
         <f t="shared" si="5"/>
@@ -15626,10 +15630,10 @@
         <v>1117</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="G344" s="4">
         <f t="shared" si="5"/>
@@ -15650,10 +15654,10 @@
         <v>1118</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="G345" s="4">
         <f t="shared" si="5"/>
@@ -15674,10 +15678,10 @@
         <v>1119</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G346" s="4">
         <f t="shared" si="5"/>
@@ -15698,10 +15702,10 @@
         <v>1120</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="G347" s="4">
         <f t="shared" si="5"/>
@@ -15722,10 +15726,10 @@
         <v>1121</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="G348" s="4">
         <f t="shared" si="5"/>
@@ -15746,10 +15750,10 @@
         <v>1122</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="G349" s="4">
         <f t="shared" si="5"/>
@@ -15770,10 +15774,10 @@
         <v>1123</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="G350" s="4">
         <f t="shared" si="5"/>
@@ -15794,10 +15798,10 @@
         <v>1124</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="G351" s="4">
         <f t="shared" si="5"/>
@@ -15818,10 +15822,10 @@
         <v>1125</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="G352" s="4">
         <f t="shared" si="5"/>
@@ -15842,10 +15846,10 @@
         <v>1126</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G353" s="4">
         <f t="shared" si="5"/>
@@ -15866,10 +15870,10 @@
         <v>1127</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="G354" s="4">
         <f t="shared" si="5"/>
@@ -15890,10 +15894,10 @@
         <v>1128</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="G355" s="4">
         <f t="shared" si="5"/>
@@ -15914,7 +15918,7 @@
         <v>1129</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="4">
@@ -15936,10 +15940,10 @@
         <v>1130</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="G357" s="4">
         <f t="shared" si="5"/>
@@ -15960,7 +15964,7 @@
         <v>1131</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>1536</v>
@@ -15984,10 +15988,10 @@
         <v>1132</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="G359" s="4">
         <f t="shared" si="5"/>
@@ -16008,10 +16012,10 @@
         <v>1133</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="G360" s="4">
         <f t="shared" si="5"/>
@@ -16032,10 +16036,10 @@
         <v>1134</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="G361" s="4">
         <f t="shared" si="5"/>
@@ -16056,10 +16060,10 @@
         <v>780</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="G362" s="4">
         <f t="shared" si="5"/>
@@ -16080,10 +16084,10 @@
         <v>1135</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G363" s="4">
         <f t="shared" si="5"/>
@@ -16104,10 +16108,10 @@
         <v>1136</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="G364" s="4">
         <f t="shared" si="5"/>
@@ -16128,10 +16132,10 @@
         <v>1137</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="G365" s="4">
         <f t="shared" si="5"/>
@@ -16152,10 +16156,10 @@
         <v>1138</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="G366" s="4">
         <f t="shared" si="5"/>
@@ -16176,10 +16180,10 @@
         <v>1139</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="G367" s="4">
         <f t="shared" si="5"/>
@@ -16200,10 +16204,10 @@
         <v>1140</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="G368" s="4">
         <f t="shared" si="5"/>
@@ -16224,10 +16228,10 @@
         <v>1141</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="G369" s="4">
         <f t="shared" si="5"/>
@@ -16248,10 +16252,10 @@
         <v>1142</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="G370" s="4">
         <f t="shared" si="5"/>
@@ -16272,10 +16276,10 @@
         <v>1143</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G371" s="4">
         <f t="shared" si="5"/>
@@ -16296,10 +16300,10 @@
         <v>1144</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="G372" s="4">
         <f t="shared" si="5"/>
@@ -16320,10 +16324,10 @@
         <v>1145</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G373" s="4">
         <f t="shared" si="5"/>
@@ -16344,10 +16348,10 @@
         <v>1146</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="G374" s="4">
         <f t="shared" si="5"/>
@@ -16368,10 +16372,10 @@
         <v>1147</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="G375" s="4">
         <f t="shared" si="5"/>
@@ -16392,10 +16396,10 @@
         <v>781</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="G376" s="4">
         <f t="shared" si="5"/>
@@ -16416,10 +16420,10 @@
         <v>1148</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="G377" s="4">
         <f t="shared" si="5"/>
@@ -16440,10 +16444,10 @@
         <v>781</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G378" s="4">
         <f t="shared" si="5"/>
@@ -16464,10 +16468,10 @@
         <v>1149</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="G379" s="4">
         <f t="shared" si="5"/>
@@ -16488,10 +16492,10 @@
         <v>281</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="G380" s="4">
         <f t="shared" si="5"/>
@@ -16512,10 +16516,10 @@
         <v>1150</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="G381" s="4">
         <f t="shared" si="5"/>
@@ -16536,10 +16540,10 @@
         <v>1151</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="G382" s="4">
         <f t="shared" si="5"/>
@@ -16560,10 +16564,10 @@
         <v>1152</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="G383" s="4">
         <f t="shared" si="5"/>
@@ -16584,10 +16588,10 @@
         <v>1153</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="G384" s="4">
         <f t="shared" si="5"/>
@@ -16608,10 +16612,10 @@
         <v>1154</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="G385" s="4">
         <f t="shared" si="5"/>
@@ -16632,10 +16636,10 @@
         <v>1155</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="G386" s="4">
         <f t="shared" ref="G386:G449" si="6">LEN(F386)</f>
@@ -16656,7 +16660,7 @@
         <v>1156</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F387" s="3" t="s">
         <v>1573</v>
@@ -16680,10 +16684,10 @@
         <v>1157</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G388" s="4">
         <f t="shared" si="6"/>
@@ -16704,10 +16708,10 @@
         <v>782</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="G389" s="4">
         <f t="shared" si="6"/>
@@ -16728,10 +16732,10 @@
         <v>1158</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="G390" s="4">
         <f t="shared" si="6"/>
@@ -16752,10 +16756,10 @@
         <v>1159</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="G391" s="4">
         <f t="shared" si="6"/>
@@ -16776,10 +16780,10 @@
         <v>1160</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="G392" s="4">
         <f t="shared" si="6"/>
@@ -16800,10 +16804,10 @@
         <v>1161</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="G393" s="4">
         <f t="shared" si="6"/>
@@ -16824,10 +16828,10 @@
         <v>1162</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="G394" s="4">
         <f t="shared" si="6"/>
@@ -16848,10 +16852,10 @@
         <v>1163</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="G395" s="4">
         <f t="shared" si="6"/>
@@ -16872,10 +16876,10 @@
         <v>1164</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G396" s="4">
         <f t="shared" si="6"/>
@@ -16896,10 +16900,10 @@
         <v>1165</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="G397" s="4">
         <f t="shared" si="6"/>
@@ -16920,10 +16924,10 @@
         <v>1166</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="G398" s="4">
         <f t="shared" si="6"/>
@@ -16944,10 +16948,10 @@
         <v>1167</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="G399" s="4">
         <f t="shared" si="6"/>
@@ -16968,10 +16972,10 @@
         <v>1168</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="G400" s="4">
         <f t="shared" si="6"/>
@@ -16992,10 +16996,10 @@
         <v>1169</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="G401" s="4">
         <f t="shared" si="6"/>
@@ -17016,10 +17020,10 @@
         <v>1170</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G402" s="4">
         <f t="shared" si="6"/>
@@ -17040,10 +17044,10 @@
         <v>1171</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G403" s="4">
         <f t="shared" si="6"/>
@@ -17064,7 +17068,7 @@
         <v>1172</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F404" s="3" t="s">
         <v>1562</v>
@@ -17088,10 +17092,10 @@
         <v>1173</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G405" s="4">
         <f t="shared" si="6"/>
@@ -17112,10 +17116,10 @@
         <v>1174</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="G406" s="4">
         <f t="shared" si="6"/>
@@ -17136,10 +17140,10 @@
         <v>1175</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G407" s="4">
         <f t="shared" si="6"/>
@@ -17160,10 +17164,10 @@
         <v>1176</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="G408" s="4">
         <f t="shared" si="6"/>
@@ -17184,10 +17188,10 @@
         <v>1177</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G409" s="4">
         <f t="shared" si="6"/>
@@ -17208,10 +17212,10 @@
         <v>1178</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="G410" s="4">
         <f t="shared" si="6"/>
@@ -17232,10 +17236,10 @@
         <v>1179</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G411" s="4">
         <f t="shared" si="6"/>
@@ -17256,10 +17260,10 @@
         <v>1180</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G412" s="4">
         <f t="shared" si="6"/>
@@ -17280,10 +17284,10 @@
         <v>1181</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="G413" s="4">
         <f t="shared" si="6"/>
@@ -17304,10 +17308,10 @@
         <v>1182</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="G414" s="4">
         <f t="shared" si="6"/>
@@ -17328,10 +17332,10 @@
         <v>1183</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="G415" s="4">
         <f t="shared" si="6"/>
@@ -17352,10 +17356,10 @@
         <v>1184</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G416" s="4">
         <f t="shared" si="6"/>
@@ -17376,10 +17380,10 @@
         <v>1185</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G417" s="4">
         <f t="shared" si="6"/>
@@ -17400,10 +17404,10 @@
         <v>1186</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G418" s="4">
         <f t="shared" si="6"/>
@@ -17424,10 +17428,10 @@
         <v>1187</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G419" s="4">
         <f t="shared" si="6"/>
@@ -17448,10 +17452,10 @@
         <v>1188</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G420" s="4">
         <f t="shared" si="6"/>
@@ -17472,10 +17476,10 @@
         <v>1189</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G421" s="4">
         <f t="shared" si="6"/>
@@ -17496,10 +17500,10 @@
         <v>1190</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="G422" s="4">
         <f t="shared" si="6"/>
@@ -17520,10 +17524,10 @@
         <v>1191</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G423" s="4">
         <f t="shared" si="6"/>
@@ -17544,10 +17548,10 @@
         <v>1192</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="G424" s="4">
         <f t="shared" si="6"/>
@@ -17568,10 +17572,10 @@
         <v>1193</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="G425" s="4">
         <f t="shared" si="6"/>
@@ -17592,10 +17596,10 @@
         <v>1194</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G426" s="4">
         <f t="shared" si="6"/>
@@ -17616,10 +17620,10 @@
         <v>1195</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G427" s="4">
         <f t="shared" si="6"/>
@@ -17640,10 +17644,10 @@
         <v>1196</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="G428" s="4">
         <f t="shared" si="6"/>
@@ -17664,10 +17668,10 @@
         <v>1197</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="G429" s="4">
         <f t="shared" si="6"/>
@@ -17688,10 +17692,10 @@
         <v>1198</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G430" s="4">
         <f t="shared" si="6"/>
@@ -17712,10 +17716,10 @@
         <v>1199</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G431" s="4">
         <f t="shared" si="6"/>
@@ -17736,10 +17740,10 @@
         <v>1200</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G432" s="4">
         <f t="shared" si="6"/>
@@ -17760,10 +17764,10 @@
         <v>1201</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G433" s="4">
         <f t="shared" si="6"/>
@@ -17784,10 +17788,10 @@
         <v>1202</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G434" s="4">
         <f t="shared" si="6"/>
@@ -17808,10 +17812,10 @@
         <v>1203</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="G435" s="4">
         <f t="shared" si="6"/>
@@ -17832,10 +17836,10 @@
         <v>1204</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G436" s="4">
         <f t="shared" si="6"/>
@@ -17856,10 +17860,10 @@
         <v>783</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G437" s="4">
         <f t="shared" si="6"/>
@@ -17880,10 +17884,10 @@
         <v>1205</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="G438" s="4">
         <f t="shared" si="6"/>
@@ -17904,10 +17908,10 @@
         <v>1206</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F439" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G439" s="4">
         <f t="shared" si="6"/>
@@ -17928,10 +17932,10 @@
         <v>1207</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="G440" s="4">
         <f t="shared" si="6"/>
@@ -17952,10 +17956,10 @@
         <v>1208</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="G441" s="4">
         <f t="shared" si="6"/>
@@ -17976,10 +17980,10 @@
         <v>1209</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="G442" s="4">
         <f t="shared" si="6"/>
@@ -18000,10 +18004,10 @@
         <v>1210</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G443" s="4">
         <f t="shared" si="6"/>
@@ -18024,10 +18028,10 @@
         <v>1211</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G444" s="4">
         <f t="shared" si="6"/>
@@ -18048,10 +18052,10 @@
         <v>1212</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G445" s="4">
         <f t="shared" si="6"/>
@@ -18072,10 +18076,10 @@
         <v>1213</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="G446" s="4">
         <f t="shared" si="6"/>
@@ -18096,10 +18100,10 @@
         <v>1214</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="G447" s="4">
         <f t="shared" si="6"/>
@@ -18120,10 +18124,10 @@
         <v>1215</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G448" s="4">
         <f t="shared" si="6"/>
@@ -18144,10 +18148,10 @@
         <v>1216</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="G449" s="4">
         <f t="shared" si="6"/>
@@ -18168,10 +18172,10 @@
         <v>1217</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="G450" s="4">
         <f t="shared" ref="G450:G513" si="7">LEN(F450)</f>
@@ -18192,10 +18196,10 @@
         <v>1218</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="G451" s="4">
         <f t="shared" si="7"/>
@@ -18216,10 +18220,10 @@
         <v>1219</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G452" s="4">
         <f t="shared" si="7"/>
@@ -18240,10 +18244,10 @@
         <v>1220</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G453" s="4">
         <f t="shared" si="7"/>
@@ -18264,10 +18268,10 @@
         <v>1221</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="G454" s="4">
         <f t="shared" si="7"/>
@@ -18288,10 +18292,10 @@
         <v>1222</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G455" s="4">
         <f t="shared" si="7"/>
@@ -18312,10 +18316,10 @@
         <v>1223</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G456" s="4">
         <f t="shared" si="7"/>
@@ -18336,10 +18340,10 @@
         <v>1224</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="G457" s="4">
         <f t="shared" si="7"/>
@@ -18360,10 +18364,10 @@
         <v>1225</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G458" s="4">
         <f t="shared" si="7"/>
@@ -18384,10 +18388,10 @@
         <v>1226</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G459" s="4">
         <f t="shared" si="7"/>
@@ -18408,10 +18412,10 @@
         <v>1227</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="G460" s="4">
         <f t="shared" si="7"/>
@@ -18432,10 +18436,10 @@
         <v>1228</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G461" s="4">
         <f t="shared" si="7"/>
@@ -18456,10 +18460,10 @@
         <v>1229</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="G462" s="4">
         <f t="shared" si="7"/>
@@ -18480,10 +18484,10 @@
         <v>1230</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G463" s="4">
         <f t="shared" si="7"/>
@@ -18504,10 +18508,10 @@
         <v>1231</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="G464" s="4">
         <f t="shared" si="7"/>
@@ -18528,10 +18532,10 @@
         <v>1232</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G465" s="4">
         <f t="shared" si="7"/>
@@ -18552,10 +18556,10 @@
         <v>1233</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="G466" s="4">
         <f t="shared" si="7"/>
@@ -18576,10 +18580,10 @@
         <v>1234</v>
       </c>
       <c r="E467" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="G467" s="4">
         <f t="shared" si="7"/>
@@ -18600,10 +18604,10 @@
         <v>1235</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G468" s="4">
         <f t="shared" si="7"/>
@@ -18624,10 +18628,10 @@
         <v>1236</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G469" s="4">
         <f t="shared" si="7"/>
@@ -18648,10 +18652,10 @@
         <v>1237</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="G470" s="4">
         <f t="shared" si="7"/>
@@ -18672,10 +18676,10 @@
         <v>1238</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="G471" s="4">
         <f t="shared" si="7"/>
@@ -18696,10 +18700,10 @@
         <v>1239</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="G472" s="4">
         <f t="shared" si="7"/>
@@ -18720,10 +18724,10 @@
         <v>1240</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="G473" s="4">
         <f t="shared" si="7"/>
@@ -18744,10 +18748,10 @@
         <v>1241</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G474" s="4">
         <f t="shared" si="7"/>
@@ -18768,10 +18772,10 @@
         <v>1242</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G475" s="4">
         <f t="shared" si="7"/>
@@ -18792,10 +18796,10 @@
         <v>1243</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="G476" s="4">
         <f t="shared" si="7"/>
@@ -18816,10 +18820,10 @@
         <v>1244</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="G477" s="4">
         <f t="shared" si="7"/>
@@ -18840,10 +18844,10 @@
         <v>1245</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="G478" s="4">
         <f t="shared" si="7"/>
@@ -18864,10 +18868,10 @@
         <v>1246</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="G479" s="4">
         <f t="shared" si="7"/>
@@ -18888,10 +18892,10 @@
         <v>1247</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G480" s="4">
         <f t="shared" si="7"/>
@@ -18912,10 +18916,10 @@
         <v>1248</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="G481" s="4">
         <f t="shared" si="7"/>
@@ -18936,10 +18940,10 @@
         <v>1249</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="G482" s="4">
         <f t="shared" si="7"/>
@@ -18960,10 +18964,10 @@
         <v>1250</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G483" s="4">
         <f t="shared" si="7"/>
@@ -18982,7 +18986,7 @@
       </c>
       <c r="D484" s="2"/>
       <c r="E484" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>1528</v>
@@ -19006,10 +19010,10 @@
         <v>1251</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="G485" s="4">
         <f t="shared" si="7"/>
@@ -19030,10 +19034,10 @@
         <v>1252</v>
       </c>
       <c r="E486" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="G486" s="4">
         <f t="shared" si="7"/>
@@ -19054,10 +19058,10 @@
         <v>1253</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F487" s="2" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="G487" s="4">
         <f t="shared" si="7"/>
@@ -19078,10 +19082,10 @@
         <v>1254</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="G488" s="4">
         <f t="shared" si="7"/>
@@ -19102,10 +19106,10 @@
         <v>1255</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="G489" s="4">
         <f t="shared" si="7"/>
@@ -19126,10 +19130,10 @@
         <v>1256</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="G490" s="4">
         <f t="shared" si="7"/>
@@ -19150,7 +19154,7 @@
         <v>1257</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>276</v>
@@ -19174,10 +19178,10 @@
         <v>1258</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="G492" s="4">
         <f t="shared" si="7"/>
@@ -19198,10 +19202,10 @@
         <v>1259</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="G493" s="4">
         <f t="shared" si="7"/>
@@ -19222,10 +19226,10 @@
         <v>1260</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="G494" s="4">
         <f t="shared" si="7"/>
@@ -19246,10 +19250,10 @@
         <v>1261</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F495" s="2" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G495" s="4">
         <f t="shared" si="7"/>
@@ -19270,10 +19274,10 @@
         <v>1262</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="G496" s="4">
         <f t="shared" si="7"/>
@@ -19294,10 +19298,10 @@
         <v>1263</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="G497" s="4">
         <f t="shared" si="7"/>
@@ -19318,10 +19322,10 @@
         <v>1264</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="G498" s="4">
         <f t="shared" si="7"/>
@@ -19342,7 +19346,7 @@
         <v>1265</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F499" s="3" t="s">
         <v>1534</v>
@@ -19366,10 +19370,10 @@
         <v>1266</v>
       </c>
       <c r="E500" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="G500" s="4">
         <f t="shared" si="7"/>
@@ -19390,10 +19394,10 @@
         <v>1267</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="G501" s="4">
         <f t="shared" si="7"/>
@@ -19414,10 +19418,10 @@
         <v>1268</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="G502" s="4">
         <f t="shared" si="7"/>
@@ -19438,10 +19442,10 @@
         <v>1269</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="G503" s="4">
         <f t="shared" si="7"/>
@@ -19462,10 +19466,10 @@
         <v>1270</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="G504" s="4">
         <f t="shared" si="7"/>
@@ -19486,10 +19490,10 @@
         <v>1271</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="G505" s="4">
         <f t="shared" si="7"/>
@@ -19510,10 +19514,10 @@
         <v>1272</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="G506" s="4">
         <f t="shared" si="7"/>
@@ -19534,10 +19538,10 @@
         <v>1273</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="G507" s="4">
         <f t="shared" si="7"/>
@@ -19558,10 +19562,10 @@
         <v>1274</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="G508" s="4">
         <f t="shared" si="7"/>
@@ -19582,10 +19586,10 @@
         <v>1275</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="G509" s="4">
         <f t="shared" si="7"/>
@@ -19606,10 +19610,10 @@
         <v>1276</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="G510" s="4">
         <f t="shared" si="7"/>
@@ -19630,10 +19634,10 @@
         <v>1277</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F511" s="3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="G511" s="4">
         <f t="shared" si="7"/>
@@ -19654,10 +19658,10 @@
         <v>784</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="G512" s="4">
         <f t="shared" si="7"/>
@@ -19678,10 +19682,10 @@
         <v>1278</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="G513" s="4">
         <f t="shared" si="7"/>
@@ -19702,10 +19706,10 @@
         <v>1279</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="G514" s="4">
         <f t="shared" ref="G514:G577" si="8">LEN(F514)</f>
@@ -19726,10 +19730,10 @@
         <v>1280</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="G515" s="4">
         <f t="shared" si="8"/>
@@ -19750,10 +19754,10 @@
         <v>776</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="G516" s="4">
         <f t="shared" si="8"/>
@@ -19774,10 +19778,10 @@
         <v>1281</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="G517" s="4">
         <f t="shared" si="8"/>
@@ -19798,10 +19802,10 @@
         <v>1282</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="G518" s="4">
         <f t="shared" si="8"/>
@@ -19822,10 +19826,10 @@
         <v>1283</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="G519" s="4">
         <f t="shared" si="8"/>
@@ -19846,10 +19850,10 @@
         <v>1284</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="G520" s="4">
         <f t="shared" si="8"/>
@@ -19870,10 +19874,10 @@
         <v>1285</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="G521" s="4">
         <f t="shared" si="8"/>
@@ -19894,10 +19898,10 @@
         <v>1286</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="G522" s="4">
         <f t="shared" si="8"/>
@@ -19918,10 +19922,10 @@
         <v>1287</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F523" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="G523" s="4">
         <f t="shared" si="8"/>
@@ -19942,10 +19946,10 @@
         <v>1288</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="G524" s="4">
         <f t="shared" si="8"/>
@@ -19966,10 +19970,10 @@
         <v>1289</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F525" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="G525" s="4">
         <f t="shared" si="8"/>
@@ -19990,10 +19994,10 @@
         <v>1290</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F526" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="G526" s="4">
         <f t="shared" si="8"/>
@@ -20014,10 +20018,10 @@
         <v>1291</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F527" s="3" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="G527" s="4">
         <f t="shared" si="8"/>
@@ -20038,10 +20042,10 @@
         <v>1292</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="G528" s="4">
         <f t="shared" si="8"/>
@@ -20062,10 +20066,10 @@
         <v>1293</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="G529" s="4">
         <f t="shared" si="8"/>
@@ -20086,10 +20090,10 @@
         <v>1294</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="G530" s="4">
         <f t="shared" si="8"/>
@@ -20110,10 +20114,10 @@
         <v>1295</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="G531" s="4">
         <f t="shared" si="8"/>
@@ -20134,10 +20138,10 @@
         <v>1296</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="G532" s="4">
         <f t="shared" si="8"/>
@@ -20158,7 +20162,7 @@
         <v>1297</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F533" s="3" t="s">
         <v>1564</v>
@@ -20182,10 +20186,10 @@
         <v>1298</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="G534" s="4">
         <f t="shared" si="8"/>
@@ -20206,10 +20210,10 @@
         <v>1299</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="G535" s="4">
         <f t="shared" si="8"/>
@@ -20230,7 +20234,7 @@
         <v>1300</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>127</v>
@@ -20254,10 +20258,10 @@
         <v>1301</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="G537" s="4">
         <f t="shared" si="8"/>
@@ -20278,10 +20282,10 @@
         <v>1302</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F538" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G538" s="4">
         <f t="shared" si="8"/>
@@ -20302,10 +20306,10 @@
         <v>1303</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F539" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="G539" s="4">
         <f t="shared" si="8"/>
@@ -20326,10 +20330,10 @@
         <v>1304</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="G540" s="4">
         <f t="shared" si="8"/>
@@ -20350,10 +20354,10 @@
         <v>1305</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="G541" s="4">
         <f t="shared" si="8"/>
@@ -20374,10 +20378,10 @@
         <v>1306</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="G542" s="4">
         <f t="shared" si="8"/>
@@ -20398,10 +20402,10 @@
         <v>1307</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="G543" s="4">
         <f t="shared" si="8"/>
@@ -20422,10 +20426,10 @@
         <v>1308</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="G544" s="4">
         <f t="shared" si="8"/>
@@ -20446,10 +20450,10 @@
         <v>1309</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="G545" s="4">
         <f t="shared" si="8"/>
@@ -20470,10 +20474,10 @@
         <v>1310</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F546" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G546" s="4">
         <f t="shared" si="8"/>
@@ -20494,10 +20498,10 @@
         <v>1311</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="G547" s="4">
         <f t="shared" si="8"/>
@@ -20518,10 +20522,10 @@
         <v>1312</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F548" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G548" s="4">
         <f t="shared" si="8"/>
@@ -20542,10 +20546,10 @@
         <v>1313</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="G549" s="4">
         <f t="shared" si="8"/>
@@ -20566,7 +20570,7 @@
         <v>1314</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F550" s="2" t="s">
         <v>543</v>
@@ -20590,10 +20594,10 @@
         <v>1315</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="G551" s="4">
         <f t="shared" si="8"/>
@@ -20614,10 +20618,10 @@
         <v>1316</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="G552" s="4">
         <f t="shared" si="8"/>
@@ -20638,10 +20642,10 @@
         <v>785</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F553" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="G553" s="4">
         <f t="shared" si="8"/>
@@ -20662,10 +20666,10 @@
         <v>1317</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F554" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G554" s="4">
         <f t="shared" si="8"/>
@@ -20684,7 +20688,7 @@
       </c>
       <c r="D555" s="2"/>
       <c r="E555" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>1521</v>
@@ -20708,10 +20712,10 @@
         <v>1318</v>
       </c>
       <c r="E556" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F556" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G556" s="4">
         <f t="shared" si="8"/>
@@ -20732,10 +20736,10 @@
         <v>1319</v>
       </c>
       <c r="E557" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G557" s="4">
         <f t="shared" si="8"/>
@@ -20756,10 +20760,10 @@
         <v>1320</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="G558" s="4">
         <f t="shared" si="8"/>
@@ -20780,10 +20784,10 @@
         <v>1321</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="G559" s="4">
         <f t="shared" si="8"/>
@@ -20804,10 +20808,10 @@
         <v>786</v>
       </c>
       <c r="E560" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="G560" s="4">
         <f t="shared" si="8"/>
@@ -20828,10 +20832,10 @@
         <v>1322</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G561" s="4">
         <f t="shared" si="8"/>
@@ -20852,10 +20856,10 @@
         <v>1323</v>
       </c>
       <c r="E562" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F562" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G562" s="4">
         <f t="shared" si="8"/>
@@ -20876,10 +20880,10 @@
         <v>1324</v>
       </c>
       <c r="E563" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="G563" s="4">
         <f t="shared" si="8"/>
@@ -20900,10 +20904,10 @@
         <v>1325</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="G564" s="4">
         <f t="shared" si="8"/>
@@ -20924,10 +20928,10 @@
         <v>1326</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="G565" s="4">
         <f t="shared" si="8"/>
@@ -20948,10 +20952,10 @@
         <v>1327</v>
       </c>
       <c r="E566" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F566" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G566" s="4">
         <f t="shared" si="8"/>
@@ -20972,10 +20976,10 @@
         <v>1328</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="G567" s="4">
         <f t="shared" si="8"/>
@@ -20996,10 +21000,10 @@
         <v>1329</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F568" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="G568" s="4">
         <f t="shared" si="8"/>
@@ -21020,10 +21024,10 @@
         <v>1330</v>
       </c>
       <c r="E569" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F569" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G569" s="4">
         <f t="shared" si="8"/>
@@ -21044,10 +21048,10 @@
         <v>1331</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F570" s="2" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="G570" s="4">
         <f t="shared" si="8"/>
@@ -21068,10 +21072,10 @@
         <v>1332</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="G571" s="4">
         <f t="shared" si="8"/>
@@ -21092,10 +21096,10 @@
         <v>1333</v>
       </c>
       <c r="E572" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="G572" s="4">
         <f t="shared" si="8"/>
@@ -21116,10 +21120,10 @@
         <v>1334</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F573" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="G573" s="4">
         <f t="shared" si="8"/>
@@ -21140,10 +21144,10 @@
         <v>1335</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="G574" s="4">
         <f t="shared" si="8"/>
@@ -21164,10 +21168,10 @@
         <v>1336</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F575" s="3" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="G575" s="4">
         <f t="shared" si="8"/>
@@ -21188,10 +21192,10 @@
         <v>1337</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="G576" s="4">
         <f t="shared" si="8"/>
@@ -21212,10 +21216,10 @@
         <v>1338</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="G577" s="4">
         <f t="shared" si="8"/>
@@ -21236,10 +21240,10 @@
         <v>1339</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="G578" s="4">
         <f t="shared" ref="G578:G641" si="9">LEN(F578)</f>
@@ -21260,10 +21264,10 @@
         <v>1340</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="G579" s="4">
         <f t="shared" si="9"/>
@@ -21284,10 +21288,10 @@
         <v>1341</v>
       </c>
       <c r="E580" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="G580" s="4">
         <f t="shared" si="9"/>
@@ -21308,10 +21312,10 @@
         <v>1342</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="G581" s="4">
         <f t="shared" si="9"/>
@@ -21332,10 +21336,10 @@
         <v>1343</v>
       </c>
       <c r="E582" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="G582" s="4">
         <f t="shared" si="9"/>
@@ -21356,7 +21360,7 @@
         <v>1344</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F583" s="3" t="s">
         <v>1551</v>
@@ -21380,10 +21384,10 @@
         <v>1345</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="G584" s="4">
         <f t="shared" si="9"/>
@@ -21404,10 +21408,10 @@
         <v>1346</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F585" s="2" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="G585" s="4">
         <f t="shared" si="9"/>
@@ -21428,10 +21432,10 @@
         <v>1347</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="G586" s="4">
         <f t="shared" si="9"/>
@@ -21452,10 +21456,10 @@
         <v>1348</v>
       </c>
       <c r="E587" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="G587" s="4">
         <f t="shared" si="9"/>
@@ -21476,10 +21480,10 @@
         <v>1349</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F588" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="G588" s="4">
         <f t="shared" si="9"/>
@@ -21500,10 +21504,10 @@
         <v>1350</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="G589" s="4">
         <f t="shared" si="9"/>
@@ -21524,10 +21528,10 @@
         <v>1351</v>
       </c>
       <c r="E590" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F590" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="G590" s="4">
         <f t="shared" si="9"/>
@@ -21548,10 +21552,10 @@
         <v>1352</v>
       </c>
       <c r="E591" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F591" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G591" s="4">
         <f t="shared" si="9"/>
@@ -21572,10 +21576,10 @@
         <v>1353</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="G592" s="4">
         <f t="shared" si="9"/>
@@ -21596,10 +21600,10 @@
         <v>1354</v>
       </c>
       <c r="E593" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F593" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="G593" s="4">
         <f t="shared" si="9"/>
@@ -21620,10 +21624,10 @@
         <v>1355</v>
       </c>
       <c r="E594" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="G594" s="4">
         <f t="shared" si="9"/>
@@ -21644,10 +21648,10 @@
         <v>1356</v>
       </c>
       <c r="E595" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="G595" s="4">
         <f t="shared" si="9"/>
@@ -21668,10 +21672,10 @@
         <v>1357</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="G596" s="4">
         <f t="shared" si="9"/>
@@ -21692,10 +21696,10 @@
         <v>1358</v>
       </c>
       <c r="E597" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="G597" s="4">
         <f t="shared" si="9"/>
@@ -21716,10 +21720,10 @@
         <v>1359</v>
       </c>
       <c r="E598" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="G598" s="4">
         <f t="shared" si="9"/>
@@ -21740,10 +21744,10 @@
         <v>1360</v>
       </c>
       <c r="E599" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="G599" s="4">
         <f t="shared" si="9"/>
@@ -21764,10 +21768,10 @@
         <v>1361</v>
       </c>
       <c r="E600" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F600" s="3" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G600" s="4">
         <f t="shared" si="9"/>
@@ -21788,10 +21792,10 @@
         <v>787</v>
       </c>
       <c r="E601" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="G601" s="4">
         <f t="shared" si="9"/>
@@ -21812,10 +21816,10 @@
         <v>1362</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="G602" s="4">
         <f t="shared" si="9"/>
@@ -21836,10 +21840,10 @@
         <v>1363</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="G603" s="4">
         <f t="shared" si="9"/>
@@ -21860,10 +21864,10 @@
         <v>1364</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="G604" s="4">
         <f t="shared" si="9"/>
@@ -21884,10 +21888,10 @@
         <v>1365</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F605" s="2" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="G605" s="4">
         <f t="shared" si="9"/>
@@ -21908,10 +21912,10 @@
         <v>1366</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F606" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="G606" s="4">
         <f t="shared" si="9"/>
@@ -21932,10 +21936,10 @@
         <v>1367</v>
       </c>
       <c r="E607" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F607" s="2" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="G607" s="4">
         <f t="shared" si="9"/>
@@ -21956,10 +21960,10 @@
         <v>1368</v>
       </c>
       <c r="E608" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="G608" s="4">
         <f t="shared" si="9"/>
@@ -21980,10 +21984,10 @@
         <v>1369</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F609" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G609" s="4">
         <f t="shared" si="9"/>
@@ -22004,10 +22008,10 @@
         <v>1370</v>
       </c>
       <c r="E610" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F610" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G610" s="4">
         <f t="shared" si="9"/>
@@ -22028,10 +22032,10 @@
         <v>1371</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F611" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G611" s="4">
         <f t="shared" si="9"/>
@@ -22052,10 +22056,10 @@
         <v>1372</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F612" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="G612" s="4">
         <f t="shared" si="9"/>
@@ -22076,10 +22080,10 @@
         <v>1373</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="G613" s="4">
         <f t="shared" si="9"/>
@@ -22100,10 +22104,10 @@
         <v>1374</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="G614" s="4">
         <f t="shared" si="9"/>
@@ -22124,10 +22128,10 @@
         <v>1375</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="G615" s="4">
         <f t="shared" si="9"/>
@@ -22148,10 +22152,10 @@
         <v>1376</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="G616" s="4">
         <f t="shared" si="9"/>
@@ -22172,10 +22176,10 @@
         <v>1377</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="G617" s="4">
         <f t="shared" si="9"/>
@@ -22196,10 +22200,10 @@
         <v>1378</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F618" s="2" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="G618" s="4">
         <f t="shared" si="9"/>
@@ -22220,10 +22224,10 @@
         <v>788</v>
       </c>
       <c r="E619" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F619" s="2" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="G619" s="4">
         <f t="shared" si="9"/>
@@ -22244,10 +22248,10 @@
         <v>1379</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F620" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G620" s="4">
         <f t="shared" si="9"/>
@@ -22268,7 +22272,7 @@
         <v>1380</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F621" s="3" t="s">
         <v>1541</v>
@@ -22292,10 +22296,10 @@
         <v>1381</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="G622" s="4">
         <f t="shared" si="9"/>
@@ -22316,10 +22320,10 @@
         <v>1382</v>
       </c>
       <c r="E623" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F623" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G623" s="4">
         <f t="shared" si="9"/>
@@ -22340,7 +22344,7 @@
         <v>1383</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F624" s="3" t="s">
         <v>1548</v>
@@ -22364,10 +22368,10 @@
         <v>1384</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F625" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="G625" s="4">
         <f t="shared" si="9"/>
@@ -22388,10 +22392,10 @@
         <v>1385</v>
       </c>
       <c r="E626" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F626" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="G626" s="4">
         <f t="shared" si="9"/>
@@ -22410,7 +22414,7 @@
       </c>
       <c r="D627" s="2"/>
       <c r="E627" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F627" s="2" t="s">
         <v>1526</v>
@@ -22434,10 +22438,10 @@
         <v>1386</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F628" s="3" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="G628" s="4">
         <f t="shared" si="9"/>
@@ -22458,10 +22462,10 @@
         <v>1387</v>
       </c>
       <c r="E629" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="G629" s="4">
         <f t="shared" si="9"/>
@@ -22482,10 +22486,10 @@
         <v>1388</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F630" s="2" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="G630" s="4">
         <f t="shared" si="9"/>
@@ -22506,10 +22510,10 @@
         <v>1389</v>
       </c>
       <c r="E631" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F631" s="2" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="G631" s="4">
         <f t="shared" si="9"/>
@@ -22530,10 +22534,10 @@
         <v>1390</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F632" s="2" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="G632" s="4">
         <f t="shared" si="9"/>
@@ -22554,10 +22558,10 @@
         <v>1391</v>
       </c>
       <c r="E633" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="G633" s="4">
         <f t="shared" si="9"/>
@@ -22578,10 +22582,10 @@
         <v>1392</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F634" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="G634" s="4">
         <f t="shared" si="9"/>
@@ -22602,10 +22606,10 @@
         <v>1393</v>
       </c>
       <c r="E635" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="G635" s="4">
         <f t="shared" si="9"/>
@@ -22626,10 +22630,10 @@
         <v>1394</v>
       </c>
       <c r="E636" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="G636" s="4">
         <f t="shared" si="9"/>
@@ -22650,7 +22654,7 @@
         <v>1395</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F637" s="3" t="s">
         <v>1570</v>
@@ -22674,10 +22678,10 @@
         <v>777</v>
       </c>
       <c r="E638" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F638" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G638" s="4">
         <f t="shared" si="9"/>
@@ -22698,10 +22702,10 @@
         <v>1396</v>
       </c>
       <c r="E639" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F639" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="G639" s="4">
         <f t="shared" si="9"/>
@@ -22722,10 +22726,10 @@
         <v>1397</v>
       </c>
       <c r="E640" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F640" s="2" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="G640" s="4">
         <f t="shared" si="9"/>
@@ -22746,10 +22750,10 @@
         <v>1398</v>
       </c>
       <c r="E641" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="G641" s="4">
         <f t="shared" si="9"/>
@@ -22770,10 +22774,10 @@
         <v>1399</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F642" s="3" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G642" s="4">
         <f t="shared" ref="G642:G705" si="10">LEN(F642)</f>
@@ -22794,10 +22798,10 @@
         <v>1400</v>
       </c>
       <c r="E643" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F643" s="2" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="G643" s="4">
         <f t="shared" si="10"/>
@@ -22818,10 +22822,10 @@
         <v>1401</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F644" s="2" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="G644" s="4">
         <f t="shared" si="10"/>
@@ -22842,10 +22846,10 @@
         <v>1402</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F645" s="2" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="G645" s="4">
         <f t="shared" si="10"/>
@@ -22866,10 +22870,10 @@
         <v>1403</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="G646" s="4">
         <f t="shared" si="10"/>
@@ -22890,10 +22894,10 @@
         <v>1404</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F647" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="G647" s="4">
         <f t="shared" si="10"/>
@@ -22914,7 +22918,7 @@
         <v>1405</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F648" s="3" t="s">
         <v>1566</v>
@@ -22938,10 +22942,10 @@
         <v>1406</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="G649" s="4">
         <f t="shared" si="10"/>
@@ -22962,10 +22966,10 @@
         <v>1407</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F650" s="2" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="G650" s="4">
         <f t="shared" si="10"/>
@@ -22986,10 +22990,10 @@
         <v>1408</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F651" s="2" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="G651" s="4">
         <f t="shared" si="10"/>
@@ -23010,10 +23014,10 @@
         <v>1409</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F652" s="2" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="G652" s="4">
         <f t="shared" si="10"/>
@@ -23034,10 +23038,10 @@
         <v>1410</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F653" s="2" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="G653" s="4">
         <f t="shared" si="10"/>
@@ -23058,10 +23062,10 @@
         <v>1411</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F654" s="2" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="G654" s="4">
         <f t="shared" si="10"/>
@@ -23082,10 +23086,10 @@
         <v>1412</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F655" s="2" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="G655" s="4">
         <f t="shared" si="10"/>
@@ -23106,10 +23110,10 @@
         <v>1413</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F656" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G656" s="4">
         <f t="shared" si="10"/>
@@ -23130,10 +23134,10 @@
         <v>1414</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F657" s="2" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="G657" s="4">
         <f t="shared" si="10"/>
@@ -23154,10 +23158,10 @@
         <v>1415</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F658" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G658" s="4">
         <f t="shared" si="10"/>
@@ -23178,10 +23182,10 @@
         <v>1416</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F659" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G659" s="4">
         <f t="shared" si="10"/>
@@ -23202,10 +23206,10 @@
         <v>1417</v>
       </c>
       <c r="E660" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F660" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G660" s="4">
         <f t="shared" si="10"/>
@@ -23226,7 +23230,7 @@
         <v>1418</v>
       </c>
       <c r="E661" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F661" s="2" t="s">
         <v>253</v>
@@ -23250,10 +23254,10 @@
         <v>1419</v>
       </c>
       <c r="E662" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F662" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="G662" s="4">
         <f t="shared" si="10"/>
@@ -23274,10 +23278,10 @@
         <v>1420</v>
       </c>
       <c r="E663" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F663" s="2" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="G663" s="4">
         <f t="shared" si="10"/>
@@ -23298,10 +23302,10 @@
         <v>1421</v>
       </c>
       <c r="E664" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F664" s="2" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="G664" s="4">
         <f t="shared" si="10"/>
@@ -23322,10 +23326,10 @@
         <v>1422</v>
       </c>
       <c r="E665" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F665" s="2" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="G665" s="4">
         <f t="shared" si="10"/>
@@ -23346,10 +23350,10 @@
         <v>1423</v>
       </c>
       <c r="E666" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F666" s="2" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="G666" s="4">
         <f t="shared" si="10"/>
@@ -23370,10 +23374,10 @@
         <v>1424</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="G667" s="4">
         <f t="shared" si="10"/>
@@ -23394,10 +23398,10 @@
         <v>1425</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F668" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="G668" s="4">
         <f t="shared" si="10"/>
@@ -23418,10 +23422,10 @@
         <v>1426</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F669" s="2" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="G669" s="4">
         <f t="shared" si="10"/>
@@ -23442,10 +23446,10 @@
         <v>1427</v>
       </c>
       <c r="E670" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F670" s="2" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="G670" s="4">
         <f t="shared" si="10"/>
@@ -23466,10 +23470,10 @@
         <v>1428</v>
       </c>
       <c r="E671" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F671" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="G671" s="4">
         <f t="shared" si="10"/>
@@ -23490,10 +23494,10 @@
         <v>1429</v>
       </c>
       <c r="E672" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F672" s="2" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="G672" s="4">
         <f t="shared" si="10"/>
@@ -23514,10 +23518,10 @@
         <v>1430</v>
       </c>
       <c r="E673" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F673" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G673" s="4">
         <f t="shared" si="10"/>
@@ -23538,10 +23542,10 @@
         <v>1431</v>
       </c>
       <c r="E674" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F674" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="G674" s="4">
         <f t="shared" si="10"/>
@@ -23562,10 +23566,10 @@
         <v>1432</v>
       </c>
       <c r="E675" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F675" s="2" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="G675" s="4">
         <f t="shared" si="10"/>
@@ -23586,10 +23590,10 @@
         <v>1433</v>
       </c>
       <c r="E676" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="G676" s="4">
         <f t="shared" si="10"/>
@@ -23610,10 +23614,10 @@
         <v>1434</v>
       </c>
       <c r="E677" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="G677" s="4">
         <f t="shared" si="10"/>
@@ -23634,10 +23638,10 @@
         <v>1435</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F678" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G678" s="4">
         <f t="shared" si="10"/>
@@ -23658,10 +23662,10 @@
         <v>1436</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F679" s="2" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="G679" s="4">
         <f t="shared" si="10"/>
@@ -23682,10 +23686,10 @@
         <v>1437</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="G680" s="4">
         <f t="shared" si="10"/>
@@ -23704,7 +23708,7 @@
       </c>
       <c r="D681" s="2"/>
       <c r="E681" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F681" s="2" t="s">
         <v>1524</v>
@@ -23728,10 +23732,10 @@
         <v>1438</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F682" s="2" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="G682" s="4">
         <f t="shared" si="10"/>
@@ -23752,10 +23756,10 @@
         <v>1439</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F683" s="2" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="G683" s="4">
         <f t="shared" si="10"/>
@@ -23776,10 +23780,10 @@
         <v>1440</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F684" s="2" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="G684" s="4">
         <f t="shared" si="10"/>
@@ -23800,10 +23804,10 @@
         <v>1441</v>
       </c>
       <c r="E685" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F685" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G685" s="4">
         <f t="shared" si="10"/>
@@ -23824,10 +23828,10 @@
         <v>1442</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="G686" s="4">
         <f t="shared" si="10"/>
@@ -23848,10 +23852,10 @@
         <v>1443</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F687" s="2" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="G687" s="4">
         <f t="shared" si="10"/>
@@ -23872,10 +23876,10 @@
         <v>1444</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F688" s="3" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="G688" s="4">
         <f t="shared" si="10"/>
@@ -23896,10 +23900,10 @@
         <v>1445</v>
       </c>
       <c r="E689" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F689" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G689" s="4">
         <f t="shared" si="10"/>
@@ -23920,10 +23924,10 @@
         <v>1446</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="G690" s="4">
         <f t="shared" si="10"/>
@@ -23944,10 +23948,10 @@
         <v>1447</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F691" s="2" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="G691" s="4">
         <f t="shared" si="10"/>
@@ -23968,10 +23972,10 @@
         <v>1448</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="G692" s="4">
         <f t="shared" si="10"/>
@@ -23992,10 +23996,10 @@
         <v>1449</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F693" s="2" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="G693" s="4">
         <f t="shared" si="10"/>
@@ -24016,10 +24020,10 @@
         <v>1450</v>
       </c>
       <c r="E694" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F694" s="2" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="G694" s="4">
         <f t="shared" si="10"/>
@@ -24040,10 +24044,10 @@
         <v>1451</v>
       </c>
       <c r="E695" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F695" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="G695" s="4">
         <f t="shared" si="10"/>
@@ -24064,10 +24068,10 @@
         <v>1452</v>
       </c>
       <c r="E696" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F696" s="2" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="G696" s="4">
         <f t="shared" si="10"/>
@@ -24088,10 +24092,10 @@
         <v>1453</v>
       </c>
       <c r="E697" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F697" s="2" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="G697" s="4">
         <f t="shared" si="10"/>
@@ -24112,10 +24116,10 @@
         <v>1454</v>
       </c>
       <c r="E698" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F698" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="G698" s="4">
         <f t="shared" si="10"/>
@@ -24136,10 +24140,10 @@
         <v>1455</v>
       </c>
       <c r="E699" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F699" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="G699" s="4">
         <f t="shared" si="10"/>
@@ -24160,10 +24164,10 @@
         <v>1456</v>
       </c>
       <c r="E700" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F700" s="2" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="G700" s="4">
         <f t="shared" si="10"/>
@@ -24184,10 +24188,10 @@
         <v>1457</v>
       </c>
       <c r="E701" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F701" s="3" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G701" s="4">
         <f t="shared" si="10"/>
@@ -24208,10 +24212,10 @@
         <v>1458</v>
       </c>
       <c r="E702" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F702" s="2" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="G702" s="4">
         <f t="shared" si="10"/>
@@ -24232,10 +24236,10 @@
         <v>789</v>
       </c>
       <c r="E703" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F703" s="2" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="G703" s="4">
         <f t="shared" si="10"/>
@@ -24256,10 +24260,10 @@
         <v>1459</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F704" s="2" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="G704" s="4">
         <f t="shared" si="10"/>
@@ -24280,10 +24284,10 @@
         <v>790</v>
       </c>
       <c r="E705" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F705" s="2" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="G705" s="4">
         <f t="shared" si="10"/>
@@ -24304,10 +24308,10 @@
         <v>1460</v>
       </c>
       <c r="E706" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F706" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G706" s="4">
         <f t="shared" ref="G706:G767" si="11">LEN(F706)</f>
@@ -24328,10 +24332,10 @@
         <v>1461</v>
       </c>
       <c r="E707" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F707" s="3" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="G707" s="4">
         <f t="shared" si="11"/>
@@ -24352,7 +24356,7 @@
         <v>1462</v>
       </c>
       <c r="E708" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F708" s="3" t="s">
         <v>1550</v>
@@ -24376,10 +24380,10 @@
         <v>1463</v>
       </c>
       <c r="E709" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F709" s="2" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="G709" s="4">
         <f t="shared" si="11"/>
@@ -24400,10 +24404,10 @@
         <v>1464</v>
       </c>
       <c r="E710" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F710" s="2" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="G710" s="4">
         <f t="shared" si="11"/>
@@ -24424,10 +24428,10 @@
         <v>1465</v>
       </c>
       <c r="E711" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F711" s="2" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="G711" s="4">
         <f t="shared" si="11"/>
@@ -24448,10 +24452,10 @@
         <v>1466</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F712" s="2" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="G712" s="4">
         <f t="shared" si="11"/>
@@ -24472,10 +24476,10 @@
         <v>1467</v>
       </c>
       <c r="E713" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F713" s="3" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G713" s="4">
         <f t="shared" si="11"/>
@@ -24496,10 +24500,10 @@
         <v>1468</v>
       </c>
       <c r="E714" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F714" s="2" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="G714" s="4">
         <f t="shared" si="11"/>
@@ -24520,7 +24524,7 @@
         <v>1469</v>
       </c>
       <c r="E715" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F715" s="2" t="s">
         <v>163</v>
@@ -24544,10 +24548,10 @@
         <v>1470</v>
       </c>
       <c r="E716" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F716" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="G716" s="4">
         <f t="shared" si="11"/>
@@ -24568,10 +24572,10 @@
         <v>1471</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="G717" s="4">
         <f t="shared" si="11"/>
@@ -24592,10 +24596,10 @@
         <v>1472</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F718" s="2" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="G718" s="4">
         <f t="shared" si="11"/>
@@ -24616,10 +24620,10 @@
         <v>1473</v>
       </c>
       <c r="E719" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F719" s="2" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="G719" s="4">
         <f t="shared" si="11"/>
@@ -24640,10 +24644,10 @@
         <v>1474</v>
       </c>
       <c r="E720" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F720" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="G720" s="4">
         <f t="shared" si="11"/>
@@ -24664,10 +24668,10 @@
         <v>1475</v>
       </c>
       <c r="E721" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F721" s="2" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="G721" s="4">
         <f t="shared" si="11"/>
@@ -24688,10 +24692,10 @@
         <v>1476</v>
       </c>
       <c r="E722" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="G722" s="4">
         <f t="shared" si="11"/>
@@ -24712,10 +24716,10 @@
         <v>1477</v>
       </c>
       <c r="E723" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F723" s="2" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="G723" s="4">
         <f t="shared" si="11"/>
@@ -24736,10 +24740,10 @@
         <v>1478</v>
       </c>
       <c r="E724" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F724" s="2" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="G724" s="4">
         <f t="shared" si="11"/>
@@ -24760,10 +24764,10 @@
         <v>1479</v>
       </c>
       <c r="E725" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F725" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G725" s="4">
         <f t="shared" si="11"/>
@@ -24784,10 +24788,10 @@
         <v>1480</v>
       </c>
       <c r="E726" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F726" s="3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="G726" s="4">
         <f t="shared" si="11"/>
@@ -24808,10 +24812,10 @@
         <v>1481</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F727" s="2" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="G727" s="4">
         <f t="shared" si="11"/>
@@ -24832,10 +24836,10 @@
         <v>1482</v>
       </c>
       <c r="E728" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F728" s="2" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="G728" s="4">
         <f t="shared" si="11"/>
@@ -24856,10 +24860,10 @@
         <v>1483</v>
       </c>
       <c r="E729" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F729" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="G729" s="4">
         <f t="shared" si="11"/>
@@ -24880,10 +24884,10 @@
         <v>1484</v>
       </c>
       <c r="E730" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F730" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G730" s="4">
         <f t="shared" si="11"/>
@@ -24904,10 +24908,10 @@
         <v>1485</v>
       </c>
       <c r="E731" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F731" s="2" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="G731" s="4">
         <f t="shared" si="11"/>
@@ -24928,10 +24932,10 @@
         <v>1486</v>
       </c>
       <c r="E732" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F732" s="3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="G732" s="4">
         <f t="shared" si="11"/>
@@ -24952,10 +24956,10 @@
         <v>1487</v>
       </c>
       <c r="E733" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F733" s="2" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="G733" s="4">
         <f t="shared" si="11"/>
@@ -24976,10 +24980,10 @@
         <v>1488</v>
       </c>
       <c r="E734" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F734" s="2" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="G734" s="4">
         <f t="shared" si="11"/>
@@ -25000,7 +25004,7 @@
         <v>1489</v>
       </c>
       <c r="E735" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F735" s="3" t="s">
         <v>1571</v>
@@ -25024,10 +25028,10 @@
         <v>1490</v>
       </c>
       <c r="E736" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F736" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G736" s="4">
         <f t="shared" si="11"/>
@@ -25048,10 +25052,10 @@
         <v>1491</v>
       </c>
       <c r="E737" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F737" s="3" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="G737" s="4">
         <f t="shared" si="11"/>
@@ -25072,10 +25076,10 @@
         <v>1492</v>
       </c>
       <c r="E738" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F738" s="2" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="G738" s="4">
         <f t="shared" si="11"/>
@@ -25096,10 +25100,10 @@
         <v>1493</v>
       </c>
       <c r="E739" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F739" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="G739" s="4">
         <f t="shared" si="11"/>
@@ -25120,10 +25124,10 @@
         <v>1494</v>
       </c>
       <c r="E740" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F740" s="2" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="G740" s="4">
         <f t="shared" si="11"/>
@@ -25142,7 +25146,7 @@
       </c>
       <c r="D741" s="2"/>
       <c r="E741" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F741" s="2" t="s">
         <v>1530</v>
@@ -25166,10 +25170,10 @@
         <v>1495</v>
       </c>
       <c r="E742" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F742" s="2" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="G742" s="4">
         <f t="shared" si="11"/>
@@ -25190,10 +25194,10 @@
         <v>1496</v>
       </c>
       <c r="E743" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F743" s="2" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="G743" s="4">
         <f t="shared" si="11"/>
@@ -25214,10 +25218,10 @@
         <v>1497</v>
       </c>
       <c r="E744" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F744" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="G744" s="4">
         <f t="shared" si="11"/>
@@ -25238,10 +25242,10 @@
         <v>1498</v>
       </c>
       <c r="E745" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F745" s="2" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="G745" s="4">
         <f t="shared" si="11"/>
@@ -25262,10 +25266,10 @@
         <v>1499</v>
       </c>
       <c r="E746" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F746" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="G746" s="4">
         <f t="shared" si="11"/>
@@ -25286,10 +25290,10 @@
         <v>1500</v>
       </c>
       <c r="E747" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F747" s="2" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="G747" s="4">
         <f t="shared" si="11"/>
@@ -25310,10 +25314,10 @@
         <v>1501</v>
       </c>
       <c r="E748" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F748" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="G748" s="4">
         <f t="shared" si="11"/>
@@ -25334,10 +25338,10 @@
         <v>1502</v>
       </c>
       <c r="E749" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F749" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="G749" s="4">
         <f t="shared" si="11"/>
@@ -25358,10 +25362,10 @@
         <v>1503</v>
       </c>
       <c r="E750" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F750" s="2" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="G750" s="4">
         <f t="shared" si="11"/>
@@ -25382,10 +25386,10 @@
         <v>1504</v>
       </c>
       <c r="E751" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F751" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G751" s="4">
         <f t="shared" si="11"/>
@@ -25406,10 +25410,10 @@
         <v>1505</v>
       </c>
       <c r="E752" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F752" s="2" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="G752" s="4">
         <f t="shared" si="11"/>
@@ -25430,10 +25434,10 @@
         <v>1506</v>
       </c>
       <c r="E753" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F753" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G753" s="4">
         <f t="shared" si="11"/>
@@ -25454,10 +25458,10 @@
         <v>1507</v>
       </c>
       <c r="E754" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F754" s="2" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="G754" s="4">
         <f t="shared" si="11"/>
@@ -25478,10 +25482,10 @@
         <v>1508</v>
       </c>
       <c r="E755" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F755" s="2" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="G755" s="4">
         <f t="shared" si="11"/>
@@ -25502,10 +25506,10 @@
         <v>1509</v>
       </c>
       <c r="E756" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F756" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G756" s="4">
         <f t="shared" si="11"/>
@@ -25526,10 +25530,10 @@
         <v>1510</v>
       </c>
       <c r="E757" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F757" s="2" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="G757" s="4">
         <f t="shared" si="11"/>
@@ -25550,10 +25554,10 @@
         <v>1511</v>
       </c>
       <c r="E758" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F758" s="2" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="G758" s="4">
         <f t="shared" si="11"/>
@@ -25574,10 +25578,10 @@
         <v>1512</v>
       </c>
       <c r="E759" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F759" s="2" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="G759" s="4">
         <f t="shared" si="11"/>
@@ -25598,10 +25602,10 @@
         <v>1513</v>
       </c>
       <c r="E760" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F760" s="2" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="G760" s="4">
         <f t="shared" si="11"/>
@@ -25622,10 +25626,10 @@
         <v>791</v>
       </c>
       <c r="E761" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F761" s="2" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="G761" s="4">
         <f t="shared" si="11"/>
@@ -25646,10 +25650,10 @@
         <v>1514</v>
       </c>
       <c r="E762" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F762" s="2" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="G762" s="4">
         <f t="shared" si="11"/>
@@ -25670,10 +25674,10 @@
         <v>1515</v>
       </c>
       <c r="E763" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F763" s="2" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="G763" s="4">
         <f t="shared" si="11"/>
@@ -25694,10 +25698,10 @@
         <v>1516</v>
       </c>
       <c r="E764" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F764" s="2" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="G764" s="4">
         <f t="shared" si="11"/>
@@ -25718,10 +25722,10 @@
         <v>1517</v>
       </c>
       <c r="E765" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F765" s="2" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="G765" s="4">
         <f t="shared" si="11"/>
@@ -25742,10 +25746,10 @@
         <v>1518</v>
       </c>
       <c r="E766" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F766" s="2" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="G766" s="4">
         <f t="shared" si="11"/>
@@ -25766,10 +25770,10 @@
         <v>1519</v>
       </c>
       <c r="E767" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F767" s="2" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="G767" s="4">
         <f t="shared" si="11"/>
